--- a/ADD Health/Tables.xlsx
+++ b/ADD Health/Tables.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d474aaa2186e9c7/R Projects/ADD Health/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1555" documentId="8_{D6B047E2-CEDE-41F6-B569-3E29F4A4A8CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0DBD4139-BBD5-45AC-AB0A-BC47D899807B}"/>
+  <xr:revisionPtr revIDLastSave="1590" documentId="8_{D6B047E2-CEDE-41F6-B569-3E29F4A4A8CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{12F39707-65D0-40D0-AC7D-ADCD70F31F2C}"/>
   <bookViews>
-    <workbookView xWindow="20985" yWindow="3030" windowWidth="14310" windowHeight="8640" xr2:uid="{BFB63638-E53B-431D-8D94-81A32DF8B432}"/>
+    <workbookView xWindow="17436" yWindow="3276" windowWidth="10740" windowHeight="6000" activeTab="3" xr2:uid="{BFB63638-E53B-431D-8D94-81A32DF8B432}"/>
   </bookViews>
   <sheets>
     <sheet name="Demographics" sheetId="1" r:id="rId1"/>
     <sheet name="Demographics Continuous" sheetId="2" r:id="rId2"/>
     <sheet name="CFA" sheetId="5" r:id="rId3"/>
+    <sheet name="SEM" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="116">
   <si>
     <t>Table 1:  Demographic profile of sample (n=3342)</t>
   </si>
@@ -332,6 +333,57 @@
   </si>
   <si>
     <t>Adult Sell Drugs</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t>Aincarceration ~</t>
+  </si>
+  <si>
+    <t>AGGDELINQ</t>
+  </si>
+  <si>
+    <t>NONAGGDELINQ</t>
+  </si>
+  <si>
+    <t>TRAUMAMALTREAT</t>
+  </si>
+  <si>
+    <t>TRAUMAPOVERTY</t>
+  </si>
+  <si>
+    <t>Citizenship</t>
+  </si>
+  <si>
+    <t>TwoParentHome</t>
+  </si>
+  <si>
+    <t>HighestGrade</t>
+  </si>
+  <si>
+    <t>Jincarceration</t>
+  </si>
+  <si>
+    <t>Jincarceration ~</t>
+  </si>
+  <si>
+    <t>AGGDELINQ ~</t>
+  </si>
+  <si>
+    <t>NONAGGDELINQ ~</t>
+  </si>
+  <si>
+    <t>Table 4:  Structural equation regression models</t>
+  </si>
+  <si>
+    <t>VARIABLE</t>
+  </si>
+  <si>
+    <t>Standardized Estimate</t>
+  </si>
+  <si>
+    <t>Estimate</t>
   </si>
 </sst>
 </file>
@@ -342,7 +394,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -389,6 +441,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -410,7 +480,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -445,6 +515,33 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -762,17 +859,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01CE7B78-B8E0-46FF-81CA-D93AE7D32E2B}">
   <dimension ref="A1:H111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+    <sheetView topLeftCell="A77" workbookViewId="0">
       <selection activeCell="A108" sqref="A108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -780,7 +877,7 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
@@ -794,7 +891,7 @@
       </c>
       <c r="H2" s="14"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -820,7 +917,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -846,7 +943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>14</v>
       </c>
@@ -869,7 +966,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -895,7 +992,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>17</v>
       </c>
@@ -918,7 +1015,7 @@
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>16</v>
       </c>
@@ -941,7 +1038,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>20</v>
       </c>
@@ -964,7 +1061,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>19</v>
       </c>
@@ -987,7 +1084,7 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1013,7 +1110,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>28</v>
       </c>
@@ -1036,7 +1133,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1062,7 +1159,7 @@
         <v>79.900000000000006</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>28</v>
       </c>
@@ -1085,7 +1182,7 @@
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1111,7 +1208,7 @@
         <v>96.5</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>28</v>
       </c>
@@ -1134,7 +1231,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -1160,7 +1257,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>28</v>
       </c>
@@ -1183,7 +1280,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1209,7 +1306,7 @@
         <v>40.4</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>23</v>
       </c>
@@ -1232,7 +1329,7 @@
         <v>31.9</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>24</v>
       </c>
@@ -1255,7 +1352,7 @@
         <v>27.7</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -1281,7 +1378,7 @@
         <v>62.7</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>28</v>
       </c>
@@ -1304,7 +1401,7 @@
         <v>37.299999999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -1330,7 +1427,7 @@
         <v>23.9</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>28</v>
       </c>
@@ -1353,7 +1450,7 @@
         <v>76.099999999999994</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -1379,7 +1476,7 @@
         <v>80.599999999999994</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>28</v>
       </c>
@@ -1402,7 +1499,7 @@
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -1428,7 +1525,7 @@
         <v>28.7</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>27</v>
       </c>
@@ -1451,7 +1548,7 @@
         <v>71.3</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -1477,7 +1574,7 @@
         <v>23.9</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>28</v>
       </c>
@@ -1500,7 +1597,7 @@
         <v>76.099999999999994</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -1526,7 +1623,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>28</v>
       </c>
@@ -1549,7 +1646,7 @@
         <v>86.7</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -1575,7 +1672,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>28</v>
       </c>
@@ -1598,7 +1695,7 @@
         <v>95.5</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -1624,7 +1721,7 @@
         <v>80.099999999999994</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>28</v>
       </c>
@@ -1647,7 +1744,7 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>46</v>
       </c>
@@ -1673,7 +1770,7 @@
         <v>55.2</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>28</v>
       </c>
@@ -1696,7 +1793,7 @@
         <v>44.8</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -1722,7 +1819,7 @@
         <v>98.9</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>28</v>
       </c>
@@ -1745,7 +1842,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -1771,7 +1868,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B43" s="7">
         <v>8</v>
       </c>
@@ -1794,7 +1891,7 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B44" s="7">
         <v>9</v>
       </c>
@@ -1817,7 +1914,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B45" s="7">
         <v>10</v>
       </c>
@@ -1840,7 +1937,7 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B46" s="7">
         <v>11</v>
       </c>
@@ -1863,7 +1960,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B47" s="7">
         <v>12</v>
       </c>
@@ -1886,7 +1983,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -1912,7 +2009,7 @@
         <v>63.7</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B49" s="7" t="s">
         <v>49</v>
       </c>
@@ -1935,7 +2032,7 @@
         <v>36.299999999999997</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -1961,7 +2058,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B51" s="7">
         <v>8</v>
       </c>
@@ -1984,7 +2081,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B52" s="7">
         <v>9</v>
       </c>
@@ -2007,7 +2104,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B53" s="7">
         <v>10</v>
       </c>
@@ -2030,7 +2127,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B54" s="7">
         <v>11</v>
       </c>
@@ -2053,7 +2150,7 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B55" s="7">
         <v>12</v>
       </c>
@@ -2076,7 +2173,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B56" s="7" t="s">
         <v>52</v>
       </c>
@@ -2099,7 +2196,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>53</v>
       </c>
@@ -2125,7 +2222,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B58" s="7" t="s">
         <v>50</v>
       </c>
@@ -2148,7 +2245,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B59" s="7" t="s">
         <v>49</v>
       </c>
@@ -2171,7 +2268,7 @@
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="8" t="s">
         <v>55</v>
       </c>
@@ -2197,7 +2294,7 @@
         <v>99.7</v>
       </c>
     </row>
-    <row r="61" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B61" s="9" t="s">
         <v>28</v>
       </c>
@@ -2220,7 +2317,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="62" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="8" t="s">
         <v>54</v>
       </c>
@@ -2246,7 +2343,7 @@
         <v>97.9</v>
       </c>
     </row>
-    <row r="63" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B63" s="9" t="s">
         <v>28</v>
       </c>
@@ -2269,7 +2366,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="64" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="8" t="s">
         <v>56</v>
       </c>
@@ -2295,7 +2392,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="65" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B65" s="9">
         <v>2</v>
       </c>
@@ -2318,7 +2415,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="66" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B66" s="9">
         <v>3</v>
       </c>
@@ -2341,7 +2438,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="67" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B67" s="9">
         <v>4</v>
       </c>
@@ -2364,7 +2461,7 @@
         <v>36.700000000000003</v>
       </c>
     </row>
-    <row r="68" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B68" s="9">
         <v>5</v>
       </c>
@@ -2387,7 +2484,7 @@
         <v>24.6</v>
       </c>
     </row>
-    <row r="69" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B69" s="9" t="s">
         <v>57</v>
       </c>
@@ -2410,7 +2507,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="8" t="s">
         <v>58</v>
       </c>
@@ -2436,7 +2533,7 @@
         <v>96.3</v>
       </c>
     </row>
-    <row r="71" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B71" s="9" t="s">
         <v>28</v>
       </c>
@@ -2459,7 +2556,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="72" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="8" t="s">
         <v>61</v>
       </c>
@@ -2485,7 +2582,7 @@
         <v>64.599999999999994</v>
       </c>
     </row>
-    <row r="73" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B73" s="9" t="s">
         <v>28</v>
       </c>
@@ -2508,7 +2605,7 @@
         <v>35.4</v>
       </c>
     </row>
-    <row r="74" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="8" t="s">
         <v>64</v>
       </c>
@@ -2534,7 +2631,7 @@
         <v>97.7</v>
       </c>
     </row>
-    <row r="75" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B75" s="9" t="s">
         <v>28</v>
       </c>
@@ -2557,7 +2654,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="76" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="8" t="s">
         <v>63</v>
       </c>
@@ -2583,7 +2680,7 @@
         <v>83.6</v>
       </c>
     </row>
-    <row r="77" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B77" s="9" t="s">
         <v>28</v>
       </c>
@@ -2606,7 +2703,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="8" t="s">
         <v>65</v>
       </c>
@@ -2632,7 +2729,7 @@
         <v>83.6</v>
       </c>
     </row>
-    <row r="79" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B79" s="9" t="s">
         <v>28</v>
       </c>
@@ -2655,7 +2752,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="8" t="s">
         <v>66</v>
       </c>
@@ -2681,7 +2778,7 @@
         <v>94.3</v>
       </c>
     </row>
-    <row r="81" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B81" s="9" t="s">
         <v>28</v>
       </c>
@@ -2704,7 +2801,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="82" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="8" t="s">
         <v>86</v>
       </c>
@@ -2730,7 +2827,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="83" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B83" s="9" t="s">
         <v>28</v>
       </c>
@@ -2753,7 +2850,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="84" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="8" t="s">
         <v>87</v>
       </c>
@@ -2779,7 +2876,7 @@
         <v>74.099999999999994</v>
       </c>
     </row>
-    <row r="85" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B85" s="9" t="s">
         <v>28</v>
       </c>
@@ -2802,7 +2899,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="86" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="8" t="s">
         <v>88</v>
       </c>
@@ -2828,7 +2925,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="87" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B87" s="9" t="s">
         <v>28</v>
       </c>
@@ -2851,7 +2948,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="88" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="8" t="s">
         <v>90</v>
       </c>
@@ -2877,7 +2974,7 @@
         <v>83.6</v>
       </c>
     </row>
-    <row r="89" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B89" s="9" t="s">
         <v>28</v>
       </c>
@@ -2900,7 +2997,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="8" t="s">
         <v>89</v>
       </c>
@@ -2926,7 +3023,7 @@
         <v>95.9</v>
       </c>
     </row>
-    <row r="91" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B91" s="9" t="s">
         <v>28</v>
       </c>
@@ -2949,7 +3046,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="92" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="8" t="s">
         <v>91</v>
       </c>
@@ -2975,7 +3072,7 @@
         <v>97.8</v>
       </c>
     </row>
-    <row r="93" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B93" s="9" t="s">
         <v>28</v>
       </c>
@@ -2998,7 +3095,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="94" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="8" t="s">
         <v>92</v>
       </c>
@@ -3024,7 +3121,7 @@
         <v>93.9</v>
       </c>
     </row>
-    <row r="95" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B95" s="9" t="s">
         <v>28</v>
       </c>
@@ -3047,7 +3144,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="96" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="8" t="s">
         <v>93</v>
       </c>
@@ -3073,7 +3170,7 @@
         <v>95.7</v>
       </c>
     </row>
-    <row r="97" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B97" s="9" t="s">
         <v>28</v>
       </c>
@@ -3096,7 +3193,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="98" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="8" t="s">
         <v>94</v>
       </c>
@@ -3122,7 +3219,7 @@
         <v>93.6</v>
       </c>
     </row>
-    <row r="99" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B99" s="9" t="s">
         <v>28</v>
       </c>
@@ -3145,7 +3242,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="100" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="8" t="s">
         <v>95</v>
       </c>
@@ -3171,7 +3268,7 @@
         <v>98.2</v>
       </c>
     </row>
-    <row r="101" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B101" s="9" t="s">
         <v>28</v>
       </c>
@@ -3194,7 +3291,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="102" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="8" t="s">
         <v>96</v>
       </c>
@@ -3220,7 +3317,7 @@
         <v>91.7</v>
       </c>
     </row>
-    <row r="103" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B103" s="9" t="s">
         <v>28</v>
       </c>
@@ -3243,7 +3340,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="104" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="8" t="s">
         <v>97</v>
       </c>
@@ -3269,7 +3366,7 @@
         <v>95.6</v>
       </c>
     </row>
-    <row r="105" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B105" s="9" t="s">
         <v>28</v>
       </c>
@@ -3292,7 +3389,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="106" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="8" t="s">
         <v>98</v>
       </c>
@@ -3318,7 +3415,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="107" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B107" s="9" t="s">
         <v>28</v>
       </c>
@@ -3341,7 +3438,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>30</v>
       </c>
@@ -3367,7 +3464,7 @@
         <v>91.6</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B109" t="s">
         <v>28</v>
       </c>
@@ -3390,7 +3487,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>31</v>
       </c>
@@ -3416,7 +3513,7 @@
         <v>76.7</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B111" t="s">
         <v>28</v>
       </c>
@@ -3457,19 +3554,19 @@
       <selection activeCell="B7" sqref="B6:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="45.109375" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="15" t="s">
         <v>3</v>
       </c>
@@ -3483,7 +3580,7 @@
       </c>
       <c r="G2" s="15"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -3506,7 +3603,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -3529,7 +3626,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -3552,7 +3649,7 @@
         <v>2.92</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -3575,7 +3672,7 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -3598,7 +3695,7 @@
         <v>7.76</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -3621,7 +3718,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -3644,7 +3741,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>60</v>
       </c>
@@ -3667,7 +3764,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>59</v>
       </c>
@@ -3690,7 +3787,7 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>62</v>
       </c>
@@ -3713,7 +3810,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>68</v>
       </c>
@@ -3754,24 +3851,24 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>76</v>
       </c>
       <c r="B1" s="18"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>75</v>
       </c>
       <c r="B2" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>77</v>
       </c>
@@ -3780,7 +3877,7 @@
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>67</v>
       </c>
@@ -3793,7 +3890,7 @@
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>70</v>
       </c>
@@ -3801,7 +3898,7 @@
         <v>3325</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>71</v>
       </c>
@@ -3809,7 +3906,7 @@
         <v>0.98699999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>72</v>
       </c>
@@ -3817,7 +3914,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>73</v>
       </c>
@@ -3825,7 +3922,7 @@
         <v>0.89900000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>74</v>
       </c>
@@ -3833,10 +3930,10 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="12"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
         <v>79</v>
       </c>
@@ -3845,7 +3942,7 @@
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>67</v>
       </c>
@@ -3858,7 +3955,7 @@
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>70</v>
       </c>
@@ -3866,7 +3963,7 @@
         <v>3324</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>71</v>
       </c>
@@ -3874,7 +3971,7 @@
         <v>0.95599999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>72</v>
       </c>
@@ -3882,7 +3979,7 @@
         <v>9.7000000000000003E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>73</v>
       </c>
@@ -3890,7 +3987,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>74</v>
       </c>
@@ -3898,7 +3995,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
         <v>82</v>
       </c>
@@ -3907,7 +4004,7 @@
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>67</v>
       </c>
@@ -3921,7 +4018,7 @@
       <c r="G24" s="17"/>
       <c r="H24" s="17"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>70</v>
       </c>
@@ -3929,7 +4026,7 @@
         <v>3324</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
         <v>71</v>
       </c>
@@ -3937,7 +4034,7 @@
         <v>0.95599999999999996</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
         <v>72</v>
       </c>
@@ -3945,7 +4042,7 @@
         <v>9.7000000000000003E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>73</v>
       </c>
@@ -3953,7 +4050,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
         <v>74</v>
       </c>
@@ -3961,7 +4058,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
         <v>84</v>
       </c>
@@ -3970,7 +4067,7 @@
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
         <v>67</v>
       </c>
@@ -3978,7 +4075,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
         <v>70</v>
       </c>
@@ -3986,7 +4083,7 @@
         <v>3253</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
         <v>71</v>
       </c>
@@ -3994,7 +4091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
         <v>72</v>
       </c>
@@ -4002,7 +4099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
         <v>73</v>
       </c>
@@ -4010,7 +4107,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
         <v>74</v>
       </c>
@@ -4018,7 +4115,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="16" t="s">
         <v>68</v>
       </c>
@@ -4027,7 +4124,7 @@
       <c r="D41" s="16"/>
       <c r="E41" s="16"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
         <v>67</v>
       </c>
@@ -4038,7 +4135,7 @@
       <c r="D42" s="17"/>
       <c r="E42" s="17"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="12" t="s">
         <v>70</v>
       </c>
@@ -4046,7 +4143,7 @@
         <v>2693</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
         <v>71</v>
       </c>
@@ -4054,7 +4151,7 @@
         <v>0.97799999999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="12" t="s">
         <v>72</v>
       </c>
@@ -4062,7 +4159,7 @@
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="12" t="s">
         <v>73</v>
       </c>
@@ -4070,7 +4167,7 @@
         <v>0.28599999999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="12" t="s">
         <v>74</v>
       </c>
@@ -4094,4 +4191,345 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A99C0C08-3AAF-4198-9235-282B8E2F1964}">
+  <dimension ref="A1:H57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+    </row>
+    <row r="2" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="23"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="15"/>
+    </row>
+    <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="H3" s="27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ADD Health/Tables.xlsx
+++ b/ADD Health/Tables.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d474aaa2186e9c7/R Projects/ADD Health/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1590" documentId="8_{D6B047E2-CEDE-41F6-B569-3E29F4A4A8CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{12F39707-65D0-40D0-AC7D-ADCD70F31F2C}"/>
+  <xr:revisionPtr revIDLastSave="1659" documentId="8_{D6B047E2-CEDE-41F6-B569-3E29F4A4A8CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7B350F42-ADEB-493C-B1E6-475AB165CA25}"/>
   <bookViews>
-    <workbookView xWindow="17436" yWindow="3276" windowWidth="10740" windowHeight="6000" activeTab="3" xr2:uid="{BFB63638-E53B-431D-8D94-81A32DF8B432}"/>
+    <workbookView xWindow="0" yWindow="3135" windowWidth="14310" windowHeight="8640" activeTab="3" xr2:uid="{BFB63638-E53B-431D-8D94-81A32DF8B432}"/>
   </bookViews>
   <sheets>
     <sheet name="Demographics" sheetId="1" r:id="rId1"/>
     <sheet name="Demographics Continuous" sheetId="2" r:id="rId2"/>
     <sheet name="CFA" sheetId="5" r:id="rId3"/>
     <sheet name="SEM" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="125">
   <si>
     <t>Table 1:  Demographic profile of sample (n=3342)</t>
   </si>
@@ -384,6 +385,33 @@
   </si>
   <si>
     <t>Estimate</t>
+  </si>
+  <si>
+    <t>Std.Err</t>
+  </si>
+  <si>
+    <t>z-value</t>
+  </si>
+  <si>
+    <t>P(&gt;|z|)</t>
+  </si>
+  <si>
+    <t>Std.lv</t>
+  </si>
+  <si>
+    <t>Std.all</t>
+  </si>
+  <si>
+    <t>AIncarceration ~</t>
+  </si>
+  <si>
+    <t>Gender.Coded</t>
+  </si>
+  <si>
+    <t>JIncarceration</t>
+  </si>
+  <si>
+    <t>JIncarceration ~</t>
   </si>
 </sst>
 </file>
@@ -394,7 +422,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -459,6 +487,11 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -480,7 +513,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -501,6 +534,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -516,32 +570,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -863,13 +899,13 @@
       <selection activeCell="A108" sqref="A108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -877,21 +913,21 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C2" s="14" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14" t="s">
+      <c r="D2" s="21"/>
+      <c r="E2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14" t="s">
+      <c r="F2" s="21"/>
+      <c r="G2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="14"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H2" s="21"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -917,7 +953,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -943,7 +979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>14</v>
       </c>
@@ -966,7 +1002,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -992,7 +1028,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>17</v>
       </c>
@@ -1015,7 +1051,7 @@
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>16</v>
       </c>
@@ -1038,7 +1074,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>20</v>
       </c>
@@ -1061,7 +1097,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>19</v>
       </c>
@@ -1084,7 +1120,7 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1110,7 +1146,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>28</v>
       </c>
@@ -1133,7 +1169,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1159,7 +1195,7 @@
         <v>79.900000000000006</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>28</v>
       </c>
@@ -1182,7 +1218,7 @@
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1208,7 +1244,7 @@
         <v>96.5</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>28</v>
       </c>
@@ -1231,7 +1267,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -1257,7 +1293,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>28</v>
       </c>
@@ -1280,7 +1316,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1306,7 +1342,7 @@
         <v>40.4</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>23</v>
       </c>
@@ -1329,7 +1365,7 @@
         <v>31.9</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>24</v>
       </c>
@@ -1352,7 +1388,7 @@
         <v>27.7</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -1378,7 +1414,7 @@
         <v>62.7</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>28</v>
       </c>
@@ -1401,7 +1437,7 @@
         <v>37.299999999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -1427,7 +1463,7 @@
         <v>23.9</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>28</v>
       </c>
@@ -1450,7 +1486,7 @@
         <v>76.099999999999994</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -1476,7 +1512,7 @@
         <v>80.599999999999994</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>28</v>
       </c>
@@ -1499,7 +1535,7 @@
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -1525,7 +1561,7 @@
         <v>28.7</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>27</v>
       </c>
@@ -1548,7 +1584,7 @@
         <v>71.3</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -1574,7 +1610,7 @@
         <v>23.9</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>28</v>
       </c>
@@ -1597,7 +1633,7 @@
         <v>76.099999999999994</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -1623,7 +1659,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>28</v>
       </c>
@@ -1646,7 +1682,7 @@
         <v>86.7</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -1672,7 +1708,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>28</v>
       </c>
@@ -1695,7 +1731,7 @@
         <v>95.5</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -1721,7 +1757,7 @@
         <v>80.099999999999994</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>28</v>
       </c>
@@ -1744,7 +1780,7 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>46</v>
       </c>
@@ -1770,7 +1806,7 @@
         <v>55.2</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>28</v>
       </c>
@@ -1793,7 +1829,7 @@
         <v>44.8</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -1819,7 +1855,7 @@
         <v>98.9</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>28</v>
       </c>
@@ -1842,7 +1878,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -1868,7 +1904,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B43" s="7">
         <v>8</v>
       </c>
@@ -1891,7 +1927,7 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B44" s="7">
         <v>9</v>
       </c>
@@ -1914,7 +1950,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B45" s="7">
         <v>10</v>
       </c>
@@ -1937,7 +1973,7 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B46" s="7">
         <v>11</v>
       </c>
@@ -1960,7 +1996,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B47" s="7">
         <v>12</v>
       </c>
@@ -1983,7 +2019,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -2009,7 +2045,7 @@
         <v>63.7</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B49" s="7" t="s">
         <v>49</v>
       </c>
@@ -2032,7 +2068,7 @@
         <v>36.299999999999997</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -2058,7 +2094,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B51" s="7">
         <v>8</v>
       </c>
@@ -2081,7 +2117,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B52" s="7">
         <v>9</v>
       </c>
@@ -2104,7 +2140,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B53" s="7">
         <v>10</v>
       </c>
@@ -2127,7 +2163,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B54" s="7">
         <v>11</v>
       </c>
@@ -2150,7 +2186,7 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B55" s="7">
         <v>12</v>
       </c>
@@ -2173,7 +2209,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B56" s="7" t="s">
         <v>52</v>
       </c>
@@ -2196,7 +2232,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>53</v>
       </c>
@@ -2222,7 +2258,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B58" s="7" t="s">
         <v>50</v>
       </c>
@@ -2245,7 +2281,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B59" s="7" t="s">
         <v>49</v>
       </c>
@@ -2268,7 +2304,7 @@
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
         <v>55</v>
       </c>
@@ -2294,7 +2330,7 @@
         <v>99.7</v>
       </c>
     </row>
-    <row r="61" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B61" s="9" t="s">
         <v>28</v>
       </c>
@@ -2317,7 +2353,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="62" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
         <v>54</v>
       </c>
@@ -2343,7 +2379,7 @@
         <v>97.9</v>
       </c>
     </row>
-    <row r="63" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B63" s="9" t="s">
         <v>28</v>
       </c>
@@ -2366,7 +2402,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="64" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>56</v>
       </c>
@@ -2392,7 +2428,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="65" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B65" s="9">
         <v>2</v>
       </c>
@@ -2415,7 +2451,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="66" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="9">
         <v>3</v>
       </c>
@@ -2438,7 +2474,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="67" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="9">
         <v>4</v>
       </c>
@@ -2461,7 +2497,7 @@
         <v>36.700000000000003</v>
       </c>
     </row>
-    <row r="68" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="9">
         <v>5</v>
       </c>
@@ -2484,7 +2520,7 @@
         <v>24.6</v>
       </c>
     </row>
-    <row r="69" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B69" s="9" t="s">
         <v>57</v>
       </c>
@@ -2507,7 +2543,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
         <v>58</v>
       </c>
@@ -2533,7 +2569,7 @@
         <v>96.3</v>
       </c>
     </row>
-    <row r="71" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B71" s="9" t="s">
         <v>28</v>
       </c>
@@ -2556,7 +2592,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="72" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
         <v>61</v>
       </c>
@@ -2582,7 +2618,7 @@
         <v>64.599999999999994</v>
       </c>
     </row>
-    <row r="73" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B73" s="9" t="s">
         <v>28</v>
       </c>
@@ -2605,7 +2641,7 @@
         <v>35.4</v>
       </c>
     </row>
-    <row r="74" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
         <v>64</v>
       </c>
@@ -2631,7 +2667,7 @@
         <v>97.7</v>
       </c>
     </row>
-    <row r="75" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B75" s="9" t="s">
         <v>28</v>
       </c>
@@ -2654,7 +2690,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="76" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
         <v>63</v>
       </c>
@@ -2680,7 +2716,7 @@
         <v>83.6</v>
       </c>
     </row>
-    <row r="77" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B77" s="9" t="s">
         <v>28</v>
       </c>
@@ -2703,7 +2739,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
         <v>65</v>
       </c>
@@ -2729,7 +2765,7 @@
         <v>83.6</v>
       </c>
     </row>
-    <row r="79" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B79" s="9" t="s">
         <v>28</v>
       </c>
@@ -2752,7 +2788,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
         <v>66</v>
       </c>
@@ -2778,7 +2814,7 @@
         <v>94.3</v>
       </c>
     </row>
-    <row r="81" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B81" s="9" t="s">
         <v>28</v>
       </c>
@@ -2801,7 +2837,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="82" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
         <v>86</v>
       </c>
@@ -2827,7 +2863,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="83" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B83" s="9" t="s">
         <v>28</v>
       </c>
@@ -2850,7 +2886,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="84" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
         <v>87</v>
       </c>
@@ -2876,7 +2912,7 @@
         <v>74.099999999999994</v>
       </c>
     </row>
-    <row r="85" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B85" s="9" t="s">
         <v>28</v>
       </c>
@@ -2899,7 +2935,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="86" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
         <v>88</v>
       </c>
@@ -2925,7 +2961,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="87" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B87" s="9" t="s">
         <v>28</v>
       </c>
@@ -2948,7 +2984,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="88" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
         <v>90</v>
       </c>
@@ -2974,7 +3010,7 @@
         <v>83.6</v>
       </c>
     </row>
-    <row r="89" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B89" s="9" t="s">
         <v>28</v>
       </c>
@@ -2997,7 +3033,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
         <v>89</v>
       </c>
@@ -3023,7 +3059,7 @@
         <v>95.9</v>
       </c>
     </row>
-    <row r="91" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B91" s="9" t="s">
         <v>28</v>
       </c>
@@ -3046,7 +3082,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="92" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
         <v>91</v>
       </c>
@@ -3072,7 +3108,7 @@
         <v>97.8</v>
       </c>
     </row>
-    <row r="93" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B93" s="9" t="s">
         <v>28</v>
       </c>
@@ -3095,7 +3131,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="94" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
         <v>92</v>
       </c>
@@ -3121,7 +3157,7 @@
         <v>93.9</v>
       </c>
     </row>
-    <row r="95" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B95" s="9" t="s">
         <v>28</v>
       </c>
@@ -3144,7 +3180,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="96" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
         <v>93</v>
       </c>
@@ -3170,7 +3206,7 @@
         <v>95.7</v>
       </c>
     </row>
-    <row r="97" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B97" s="9" t="s">
         <v>28</v>
       </c>
@@ -3193,7 +3229,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="98" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
         <v>94</v>
       </c>
@@ -3219,7 +3255,7 @@
         <v>93.6</v>
       </c>
     </row>
-    <row r="99" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B99" s="9" t="s">
         <v>28</v>
       </c>
@@ -3242,7 +3278,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="100" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
         <v>95</v>
       </c>
@@ -3268,7 +3304,7 @@
         <v>98.2</v>
       </c>
     </row>
-    <row r="101" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B101" s="9" t="s">
         <v>28</v>
       </c>
@@ -3291,7 +3327,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="102" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
         <v>96</v>
       </c>
@@ -3317,7 +3353,7 @@
         <v>91.7</v>
       </c>
     </row>
-    <row r="103" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B103" s="9" t="s">
         <v>28</v>
       </c>
@@ -3340,7 +3376,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="104" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
         <v>97</v>
       </c>
@@ -3366,7 +3402,7 @@
         <v>95.6</v>
       </c>
     </row>
-    <row r="105" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B105" s="9" t="s">
         <v>28</v>
       </c>
@@ -3389,7 +3425,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="106" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
         <v>98</v>
       </c>
@@ -3415,7 +3451,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="107" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B107" s="9" t="s">
         <v>28</v>
       </c>
@@ -3438,7 +3474,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>30</v>
       </c>
@@ -3464,7 +3500,7 @@
         <v>91.6</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>28</v>
       </c>
@@ -3487,7 +3523,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>31</v>
       </c>
@@ -3513,7 +3549,7 @@
         <v>76.7</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>28</v>
       </c>
@@ -3554,33 +3590,33 @@
       <selection activeCell="B7" sqref="B6:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.109375" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="45.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="15" t="s">
+    <row r="2" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15" t="s">
+      <c r="E2" s="22"/>
+      <c r="F2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="15"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G2" s="22"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -3603,7 +3639,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -3626,7 +3662,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -3649,7 +3685,7 @@
         <v>2.92</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -3672,7 +3708,7 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -3695,7 +3731,7 @@
         <v>7.76</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -3718,7 +3754,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -3741,7 +3777,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>60</v>
       </c>
@@ -3764,7 +3800,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>59</v>
       </c>
@@ -3787,7 +3823,7 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>62</v>
       </c>
@@ -3810,7 +3846,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>68</v>
       </c>
@@ -3851,46 +3887,46 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="18"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B1" s="25"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>75</v>
       </c>
       <c r="B2" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>70</v>
       </c>
@@ -3898,7 +3934,7 @@
         <v>3325</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>71</v>
       </c>
@@ -3906,7 +3942,7 @@
         <v>0.98699999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>72</v>
       </c>
@@ -3914,7 +3950,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>73</v>
       </c>
@@ -3922,7 +3958,7 @@
         <v>0.89900000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>74</v>
       </c>
@@ -3930,32 +3966,32 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
     </row>
-    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>70</v>
       </c>
@@ -3963,7 +3999,7 @@
         <v>3324</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>71</v>
       </c>
@@ -3971,7 +4007,7 @@
         <v>0.95599999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>72</v>
       </c>
@@ -3979,7 +4015,7 @@
         <v>9.7000000000000003E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>73</v>
       </c>
@@ -3987,7 +4023,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>74</v>
       </c>
@@ -3995,30 +4031,30 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="16" t="s">
+    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>70</v>
       </c>
@@ -4026,7 +4062,7 @@
         <v>3324</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>71</v>
       </c>
@@ -4034,7 +4070,7 @@
         <v>0.95599999999999996</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>72</v>
       </c>
@@ -4042,7 +4078,7 @@
         <v>9.7000000000000003E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>73</v>
       </c>
@@ -4050,7 +4086,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>74</v>
       </c>
@@ -4058,16 +4094,16 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="16" t="s">
+    <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>67</v>
       </c>
@@ -4075,7 +4111,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>70</v>
       </c>
@@ -4083,7 +4119,7 @@
         <v>3253</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>71</v>
       </c>
@@ -4091,7 +4127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>72</v>
       </c>
@@ -4099,7 +4135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
         <v>73</v>
       </c>
@@ -4107,7 +4143,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
         <v>74</v>
       </c>
@@ -4115,27 +4151,27 @@
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="16" t="s">
+    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
         <v>70</v>
       </c>
@@ -4143,7 +4179,7 @@
         <v>2693</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
         <v>71</v>
       </c>
@@ -4151,7 +4187,7 @@
         <v>0.97799999999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
         <v>72</v>
       </c>
@@ -4159,7 +4195,7 @@
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
         <v>73</v>
       </c>
@@ -4167,7 +4203,7 @@
         <v>0.28599999999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>74</v>
       </c>
@@ -4197,331 +4233,625 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A99C0C08-3AAF-4198-9235-282B8E2F1964}">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-    </row>
-    <row r="2" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+    </row>
+    <row r="2" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="15" t="s">
+      <c r="D2" s="27"/>
+      <c r="E2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15" t="s">
+      <c r="F2" s="22"/>
+      <c r="G2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="15"/>
-    </row>
-    <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H2" s="22"/>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="26" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="H3" s="20" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
+      <c r="C5">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D5">
+        <v>0.53800000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
+      <c r="C6">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="D6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="21" t="s">
+      <c r="C7">
+        <v>-0.107</v>
+      </c>
+      <c r="D7">
+        <v>0.88100000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="21" t="s">
+      <c r="C8">
+        <v>0.16</v>
+      </c>
+      <c r="D8">
+        <v>0.83099999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="21" t="s">
+      <c r="C9">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="21" t="s">
+      <c r="C10">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="D10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="21" t="s">
+      <c r="C11">
+        <v>-0.111</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="21" t="s">
+      <c r="C12">
+        <v>0.04</v>
+      </c>
+      <c r="D12">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="21" t="s">
+      <c r="C13">
+        <v>-2.3E-2</v>
+      </c>
+      <c r="D13">
+        <v>0.22600000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="21" t="s">
+      <c r="C14">
+        <v>-2.5999999999999999E-2</v>
+      </c>
+      <c r="D14">
+        <v>0.17299999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="21" t="s">
+      <c r="C15">
+        <v>-3.3000000000000002E-2</v>
+      </c>
+      <c r="D15">
+        <v>8.5999999999999993E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="21" t="s">
+      <c r="C16">
+        <v>3.1E-2</v>
+      </c>
+      <c r="D16">
+        <v>0.112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="21" t="s">
+      <c r="C17">
+        <v>-5.2999999999999999E-2</v>
+      </c>
+      <c r="D17">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="21" t="s">
+      <c r="C18">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D18">
+        <v>0.53500000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="21" t="s">
+      <c r="C19">
+        <v>-4.7E-2</v>
+      </c>
+      <c r="D19">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="20" t="s">
+      <c r="C20">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="21" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="21" t="s">
+      <c r="C22">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="D22">
+        <v>9.9000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="21" t="s">
+      <c r="C23">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="21" t="s">
+      <c r="C24">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="D24">
+        <v>0.67800000000000005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="16" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="21" t="s">
+      <c r="C25">
+        <v>-8.5999999999999993E-2</v>
+      </c>
+      <c r="D25">
+        <v>0.874</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="21" t="s">
+      <c r="C26">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="D26">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="21" t="s">
+      <c r="C27">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="D27">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="16" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="21" t="s">
+      <c r="C28">
+        <v>-0.112</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="21" t="s">
+      <c r="C29">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="D29">
+        <v>0.51300000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="16" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="21" t="s">
+      <c r="C30">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="D30">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="16" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="21" t="s">
+      <c r="C31">
+        <v>1E-3</v>
+      </c>
+      <c r="D31">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="16" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="21" t="s">
+      <c r="C32">
+        <v>3.1E-2</v>
+      </c>
+      <c r="D32">
+        <v>0.16900000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="16" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="21" t="s">
+      <c r="C33">
+        <v>-3.9E-2</v>
+      </c>
+      <c r="D33">
+        <v>9.0999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="16" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="21" t="s">
+      <c r="C34">
+        <v>1E-3</v>
+      </c>
+      <c r="D34">
+        <v>0.97799999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="16" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="21" t="s">
+      <c r="C35">
+        <v>-3.4000000000000002E-2</v>
+      </c>
+      <c r="D35">
+        <v>0.19500000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="16" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="20" t="s">
+      <c r="C36">
+        <v>-6.7000000000000004E-2</v>
+      </c>
+      <c r="D36">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="15" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="21" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="16" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="21" t="s">
+      <c r="C38">
+        <v>-8.5000000000000006E-2</v>
+      </c>
+      <c r="D38">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="21" t="s">
+      <c r="C39">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D39">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="16" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="21" t="s">
+      <c r="C40">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D40">
+        <v>0.82399999999999995</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="16" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="21" t="s">
+      <c r="C41">
+        <v>-0.02</v>
+      </c>
+      <c r="D41">
+        <v>0.42899999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="16" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="21" t="s">
+      <c r="C42">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D42">
+        <v>0.85899999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="16" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="21" t="s">
+      <c r="C43">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="D43">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="16" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="21" t="s">
+      <c r="C44">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="D44">
+        <v>0.72399999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="16" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="21" t="s">
+      <c r="C45">
+        <v>-4.2999999999999997E-2</v>
+      </c>
+      <c r="D45">
+        <v>9.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="16" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="20" t="s">
+      <c r="C46">
+        <v>-0.129</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="15" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="21" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="16" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="21" t="s">
+      <c r="C48">
+        <v>-9.6000000000000002E-2</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="21" t="s">
+      <c r="C49">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="D49">
+        <v>0.749</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="16" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="21" t="s">
+      <c r="C50">
+        <v>3.1E-2</v>
+      </c>
+      <c r="D50">
+        <v>0.20200000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="16" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="21" t="s">
+      <c r="C51">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="D51">
+        <v>0.16400000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="16" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="21" t="s">
+      <c r="C52">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="D52">
+        <v>0.88600000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="16" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="21" t="s">
+      <c r="C53">
+        <v>0.02</v>
+      </c>
+      <c r="D53">
+        <v>0.41299999999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="16" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="21" t="s">
+      <c r="C54">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="D54">
+        <v>0.151</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="16" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="21" t="s">
+      <c r="C55">
+        <v>-2.1999999999999999E-2</v>
+      </c>
+      <c r="D55">
+        <v>0.373</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="16" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="22"/>
+      <c r="C56">
+        <v>-9.9000000000000005E-2</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4532,4 +4862,1188 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD07AAF7-5597-4129-A7A3-390DDF6E9FE7}">
+  <dimension ref="A1:G54"/>
+  <sheetViews>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="28"/>
+      <c r="B1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D3">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="E3">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="F3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G3">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C4">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D4">
+        <v>2.3260000000000001</v>
+      </c>
+      <c r="E4">
+        <v>0.02</v>
+      </c>
+      <c r="F4">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G4">
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5">
+        <v>-3.3000000000000002E-2</v>
+      </c>
+      <c r="C5">
+        <v>0.222</v>
+      </c>
+      <c r="D5">
+        <v>-0.14899999999999999</v>
+      </c>
+      <c r="E5">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="F5">
+        <v>-3.3000000000000002E-2</v>
+      </c>
+      <c r="G5">
+        <v>-0.107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6">
+        <v>0.05</v>
+      </c>
+      <c r="C6">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="D6">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="E6">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="F6">
+        <v>0.05</v>
+      </c>
+      <c r="G6">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="C7">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D7">
+        <v>6.0529999999999999</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="G7">
+        <v>0.11899999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="C8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D8">
+        <v>2.9590000000000001</v>
+      </c>
+      <c r="E8">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F8">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="G8">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="C9">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D9">
+        <v>-5.6680000000000001</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="G9">
+        <v>-0.111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>0.03</v>
+      </c>
+      <c r="C10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D10">
+        <v>2.036</v>
+      </c>
+      <c r="E10">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="F10">
+        <v>0.03</v>
+      </c>
+      <c r="G10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>-2.7E-2</v>
+      </c>
+      <c r="C11">
+        <v>2.3E-2</v>
+      </c>
+      <c r="D11">
+        <v>-1.2110000000000001</v>
+      </c>
+      <c r="E11">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="F11">
+        <v>-2.7E-2</v>
+      </c>
+      <c r="G11">
+        <v>-2.3E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>-4.5999999999999999E-2</v>
+      </c>
+      <c r="C12">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="D12">
+        <v>-1.3620000000000001</v>
+      </c>
+      <c r="E12">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="F12">
+        <v>-4.5999999999999999E-2</v>
+      </c>
+      <c r="G12">
+        <v>-2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13">
+        <v>-7.9000000000000001E-2</v>
+      </c>
+      <c r="C13">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="D13">
+        <v>-1.7190000000000001</v>
+      </c>
+      <c r="E13">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="F13">
+        <v>-7.9000000000000001E-2</v>
+      </c>
+      <c r="G13">
+        <v>-3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C14">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D14">
+        <v>1.591</v>
+      </c>
+      <c r="E14">
+        <v>0.112</v>
+      </c>
+      <c r="F14">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G14">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15">
+        <v>-3.3000000000000002E-2</v>
+      </c>
+      <c r="C15">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D15">
+        <v>-2.6659999999999999</v>
+      </c>
+      <c r="E15">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="F15">
+        <v>-3.3000000000000002E-2</v>
+      </c>
+      <c r="G15">
+        <v>-5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="B16">
+        <v>0.01</v>
+      </c>
+      <c r="C16">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D16">
+        <v>0.621</v>
+      </c>
+      <c r="E16">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="F16">
+        <v>0.01</v>
+      </c>
+      <c r="G16">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="C17">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D17">
+        <v>-2.1920000000000002</v>
+      </c>
+      <c r="E17">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="F17">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="G17">
+        <v>-4.7E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="B18">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="C18">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="D18">
+        <v>12.015000000000001</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="G18">
+        <v>0.49199999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="B20">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C20">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D20">
+        <v>1.6519999999999999</v>
+      </c>
+      <c r="E20">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="F20">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G20">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21">
+        <v>2.7E-2</v>
+      </c>
+      <c r="C21">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D21">
+        <v>6.2290000000000001</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>2.7E-2</v>
+      </c>
+      <c r="G21">
+        <v>0.14699999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="B22">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="C22">
+        <v>0.09</v>
+      </c>
+      <c r="D22">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="E22">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="F22">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="G22">
+        <v>0.20300000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23">
+        <v>-1.6E-2</v>
+      </c>
+      <c r="C23">
+        <v>0.1</v>
+      </c>
+      <c r="D23">
+        <v>-0.159</v>
+      </c>
+      <c r="E23">
+        <v>0.874</v>
+      </c>
+      <c r="F23">
+        <v>-1.6E-2</v>
+      </c>
+      <c r="G23">
+        <v>-8.5999999999999993E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C24">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D24">
+        <v>2.121</v>
+      </c>
+      <c r="E24">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="F24">
+        <v>1.9E-2</v>
+      </c>
+      <c r="G24">
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="C25">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D25">
+        <v>2.702</v>
+      </c>
+      <c r="E25">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F25">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="G25">
+        <v>6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="B26">
+        <v>-4.2000000000000003E-2</v>
+      </c>
+      <c r="C26">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D26">
+        <v>-4.9370000000000003</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>-4.2000000000000003E-2</v>
+      </c>
+      <c r="G26">
+        <v>-0.112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="C27">
+        <v>0.01</v>
+      </c>
+      <c r="D27">
+        <v>-0.65500000000000003</v>
+      </c>
+      <c r="E27">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="F27">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="G27">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28">
+        <v>0.03</v>
+      </c>
+      <c r="C28">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D28">
+        <v>1.923</v>
+      </c>
+      <c r="E28">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="F28">
+        <v>0.03</v>
+      </c>
+      <c r="G28">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29">
+        <v>1E-3</v>
+      </c>
+      <c r="C29">
+        <v>2.4E-2</v>
+      </c>
+      <c r="D29">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="E29">
+        <v>0.97</v>
+      </c>
+      <c r="F29">
+        <v>1E-3</v>
+      </c>
+      <c r="G29">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="C30">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="D30">
+        <v>1.3740000000000001</v>
+      </c>
+      <c r="E30">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="F30">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="G30">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="C31">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D31">
+        <v>-1.6879999999999999</v>
+      </c>
+      <c r="E31">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="F31">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="G31">
+        <v>-3.9E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D32">
+        <v>2.7E-2</v>
+      </c>
+      <c r="E32">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="B33">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="C33">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D33">
+        <v>-1.296</v>
+      </c>
+      <c r="E33">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="F33">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="G33">
+        <v>-3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="B34">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="C34">
+        <v>2E-3</v>
+      </c>
+      <c r="D34">
+        <v>-2.6930000000000001</v>
+      </c>
+      <c r="E34">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F34">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="G34">
+        <v>-6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="B36">
+        <v>-0.17499999999999999</v>
+      </c>
+      <c r="C36">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D36">
+        <v>-3.3660000000000001</v>
+      </c>
+      <c r="E36">
+        <v>1E-3</v>
+      </c>
+      <c r="F36">
+        <v>-0.17199999999999999</v>
+      </c>
+      <c r="G36">
+        <v>-8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="C37">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D37">
+        <v>3.0009999999999999</v>
+      </c>
+      <c r="E37">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F37">
+        <v>0.191</v>
+      </c>
+      <c r="G37">
+        <v>7.8E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="C38">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="D38">
+        <v>0.222</v>
+      </c>
+      <c r="E38">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="F38">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="G38">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39">
+        <v>-0.11799999999999999</v>
+      </c>
+      <c r="C39">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="D39">
+        <v>-0.79100000000000004</v>
+      </c>
+      <c r="E39">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="F39">
+        <v>-0.11600000000000001</v>
+      </c>
+      <c r="G39">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="B40">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="C40">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="D40">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="E40">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="F40">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="G40">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="C41">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D41">
+        <v>3.363</v>
+      </c>
+      <c r="E41">
+        <v>1E-3</v>
+      </c>
+      <c r="F41">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G41">
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42">
+        <v>-0.02</v>
+      </c>
+      <c r="C42">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="D42">
+        <v>-0.35299999999999998</v>
+      </c>
+      <c r="E42">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="F42">
+        <v>-1.9E-2</v>
+      </c>
+      <c r="G42">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="B43">
+        <v>-0.107</v>
+      </c>
+      <c r="C43">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D43">
+        <v>-1.6539999999999999</v>
+      </c>
+      <c r="E43">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="F43">
+        <v>-0.105</v>
+      </c>
+      <c r="G43">
+        <v>-4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="B44">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="C44">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D44">
+        <v>-4.6139999999999999</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>-6.9000000000000006E-2</v>
+      </c>
+      <c r="G44">
+        <v>-0.129</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="B46">
+        <v>-0.19600000000000001</v>
+      </c>
+      <c r="C46">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="D46">
+        <v>-4.0030000000000001</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>-0.19400000000000001</v>
+      </c>
+      <c r="G46">
+        <v>-9.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B47">
+        <v>-1.9E-2</v>
+      </c>
+      <c r="C47">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="D47">
+        <v>-0.31900000000000001</v>
+      </c>
+      <c r="E47">
+        <v>0.749</v>
+      </c>
+      <c r="F47">
+        <v>-1.9E-2</v>
+      </c>
+      <c r="G47">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="C48">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="D48">
+        <v>1.2749999999999999</v>
+      </c>
+      <c r="E48">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="F48">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="G48">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="C49">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="D49">
+        <v>1.391</v>
+      </c>
+      <c r="E49">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="F49">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="G49">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="B50">
+        <v>-2.8000000000000001E-2</v>
+      </c>
+      <c r="C50">
+        <v>0.193</v>
+      </c>
+      <c r="D50">
+        <v>-0.14399999999999999</v>
+      </c>
+      <c r="E50">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="F50">
+        <v>-2.7E-2</v>
+      </c>
+      <c r="G50">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51">
+        <v>1.4E-2</v>
+      </c>
+      <c r="C51">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D51">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="E51">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="F51">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G51">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B52">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="C52">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D52">
+        <v>1.4350000000000001</v>
+      </c>
+      <c r="E52">
+        <v>0.151</v>
+      </c>
+      <c r="F52">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="G52">
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="B53">
+        <v>-5.3999999999999999E-2</v>
+      </c>
+      <c r="C53">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="D53">
+        <v>-0.89</v>
+      </c>
+      <c r="E53">
+        <v>0.373</v>
+      </c>
+      <c r="F53">
+        <v>-5.3999999999999999E-2</v>
+      </c>
+      <c r="G53">
+        <v>-2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="B54">
+        <v>-5.2999999999999999E-2</v>
+      </c>
+      <c r="C54">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D54">
+        <v>-3.7330000000000001</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>-5.2999999999999999E-2</v>
+      </c>
+      <c r="G54">
+        <v>-9.9000000000000005E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/ADD Health/Tables.xlsx
+++ b/ADD Health/Tables.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d474aaa2186e9c7/R Projects/ADD Health/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1659" documentId="8_{D6B047E2-CEDE-41F6-B569-3E29F4A4A8CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7B350F42-ADEB-493C-B1E6-475AB165CA25}"/>
+  <xr:revisionPtr revIDLastSave="1802" documentId="8_{D6B047E2-CEDE-41F6-B569-3E29F4A4A8CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B38F5F14-E276-471D-B694-11B60D96912C}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3135" windowWidth="14310" windowHeight="8640" activeTab="3" xr2:uid="{BFB63638-E53B-431D-8D94-81A32DF8B432}"/>
+    <workbookView xWindow="5856" yWindow="0" windowWidth="17280" windowHeight="8964" firstSheet="2" activeTab="4" xr2:uid="{BFB63638-E53B-431D-8D94-81A32DF8B432}"/>
   </bookViews>
   <sheets>
     <sheet name="Demographics" sheetId="1" r:id="rId1"/>
     <sheet name="Demographics Continuous" sheetId="2" r:id="rId2"/>
     <sheet name="CFA" sheetId="5" r:id="rId3"/>
     <sheet name="SEM" sheetId="6" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId5"/>
+    <sheet name="Testing" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="192">
   <si>
     <t>Table 1:  Demographic profile of sample (n=3342)</t>
   </si>
@@ -387,31 +387,232 @@
     <t>Estimate</t>
   </si>
   <si>
-    <t>Std.Err</t>
-  </si>
-  <si>
-    <t>z-value</t>
-  </si>
-  <si>
-    <t>P(&gt;|z|)</t>
-  </si>
-  <si>
-    <t>Std.lv</t>
-  </si>
-  <si>
-    <t>Std.all</t>
-  </si>
-  <si>
-    <t>AIncarceration ~</t>
-  </si>
-  <si>
-    <t>Gender.Coded</t>
-  </si>
-  <si>
-    <t>JIncarceration</t>
-  </si>
-  <si>
-    <t>JIncarceration ~</t>
+    <t>In Queue</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>H1JO9</t>
+  </si>
+  <si>
+    <t>JDDriveDrunk</t>
+  </si>
+  <si>
+    <t>W1</t>
+  </si>
+  <si>
+    <t>H1DS12</t>
+  </si>
+  <si>
+    <t>W2</t>
+  </si>
+  <si>
+    <t>H2DS10</t>
+  </si>
+  <si>
+    <t>H1TO42</t>
+  </si>
+  <si>
+    <t>H1TO36</t>
+  </si>
+  <si>
+    <t>H1TO46</t>
+  </si>
+  <si>
+    <t>H1TO43</t>
+  </si>
+  <si>
+    <t>H1TO44</t>
+  </si>
+  <si>
+    <t>H1TO35</t>
+  </si>
+  <si>
+    <t>H1JO19</t>
+  </si>
+  <si>
+    <t>H1JO24</t>
+  </si>
+  <si>
+    <t>W1,W2</t>
+  </si>
+  <si>
+    <t>H1JO21</t>
+  </si>
+  <si>
+    <t>H1JO23</t>
+  </si>
+  <si>
+    <t>H1DS4</t>
+  </si>
+  <si>
+    <t>H1FV7</t>
+  </si>
+  <si>
+    <t>H1FV8</t>
+  </si>
+  <si>
+    <t>H1DS3</t>
+  </si>
+  <si>
+    <t>H1JO11</t>
+  </si>
+  <si>
+    <t>H1DS5</t>
+  </si>
+  <si>
+    <t>H1DS2</t>
+  </si>
+  <si>
+    <t>H1TO53</t>
+  </si>
+  <si>
+    <t>H1DS13</t>
+  </si>
+  <si>
+    <t>H2DS11</t>
+  </si>
+  <si>
+    <t>H1DS9</t>
+  </si>
+  <si>
+    <t>H2DS7</t>
+  </si>
+  <si>
+    <t>H1JO26</t>
+  </si>
+  <si>
+    <t>H2FV10</t>
+  </si>
+  <si>
+    <t>H1DS6</t>
+  </si>
+  <si>
+    <t>H1DS1</t>
+  </si>
+  <si>
+    <t>JDDriveHigh</t>
+  </si>
+  <si>
+    <t>JDSellDrugs</t>
+  </si>
+  <si>
+    <t>JDIllegalDrugUse</t>
+  </si>
+  <si>
+    <t>JDCocaineUse</t>
+  </si>
+  <si>
+    <t>JDIllegalDrugNeedle</t>
+  </si>
+  <si>
+    <t>JDAloneDrugUse</t>
+  </si>
+  <si>
+    <t>JDFightOnDrugs</t>
+  </si>
+  <si>
+    <t>JDWeaponOnDrugs</t>
+  </si>
+  <si>
+    <t>JDStealLess</t>
+  </si>
+  <si>
+    <t>JDStealMore</t>
+  </si>
+  <si>
+    <t>JDStealStore</t>
+  </si>
+  <si>
+    <t>JDKnifeGun</t>
+  </si>
+  <si>
+    <t>JDShootStab</t>
+  </si>
+  <si>
+    <t>JDLying</t>
+  </si>
+  <si>
+    <t>JDPhysicalFight</t>
+  </si>
+  <si>
+    <t>JDSeriousPhysicalFight</t>
+  </si>
+  <si>
+    <t>JDDamageProperty</t>
+  </si>
+  <si>
+    <t>JDWeaponFight</t>
+  </si>
+  <si>
+    <t>JDHurtBadly</t>
+  </si>
+  <si>
+    <t>JDGraffitiPaint</t>
+  </si>
+  <si>
+    <t>Delinquency Variables</t>
+  </si>
+  <si>
+    <t>Adult Crime Variables</t>
+  </si>
+  <si>
+    <t>W3</t>
+  </si>
+  <si>
+    <t>W4</t>
+  </si>
+  <si>
+    <t>W1,2,3,4</t>
+  </si>
+  <si>
+    <t>W3,W4</t>
+  </si>
+  <si>
+    <t>H3DS8</t>
+  </si>
+  <si>
+    <t>H4DS8</t>
+  </si>
+  <si>
+    <t>H4DS11</t>
+  </si>
+  <si>
+    <t>H4DS20</t>
+  </si>
+  <si>
+    <t>H4CJ9I</t>
+  </si>
+  <si>
+    <t>H4DS1</t>
+  </si>
+  <si>
+    <t>H4DS19</t>
+  </si>
+  <si>
+    <t>H4DS5</t>
+  </si>
+  <si>
+    <t>H4DS6</t>
+  </si>
+  <si>
+    <t>H4DS2</t>
+  </si>
+  <si>
+    <t>H3DS16</t>
+  </si>
+  <si>
+    <t>H1DS10</t>
+  </si>
+  <si>
+    <t>H1DS11</t>
+  </si>
+  <si>
+    <t>H1DS8</t>
+  </si>
+  <si>
+    <t>H3DS9</t>
   </si>
 </sst>
 </file>
@@ -422,7 +623,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -488,17 +689,33 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <name val="Lucida Console"/>
-      <family val="3"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -513,7 +730,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -555,6 +772,11 @@
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -577,8 +799,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -899,13 +1125,13 @@
       <selection activeCell="A108" sqref="A108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -913,21 +1139,21 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C2" s="21" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21" t="s">
+      <c r="D2" s="24"/>
+      <c r="E2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21" t="s">
+      <c r="F2" s="24"/>
+      <c r="G2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="21"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H2" s="24"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -953,7 +1179,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -979,7 +1205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>14</v>
       </c>
@@ -1002,7 +1228,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1028,7 +1254,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>17</v>
       </c>
@@ -1051,7 +1277,7 @@
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>16</v>
       </c>
@@ -1074,7 +1300,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>20</v>
       </c>
@@ -1097,7 +1323,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>19</v>
       </c>
@@ -1120,7 +1346,7 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1146,7 +1372,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>28</v>
       </c>
@@ -1169,7 +1395,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1195,7 +1421,7 @@
         <v>79.900000000000006</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>28</v>
       </c>
@@ -1218,7 +1444,7 @@
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1244,7 +1470,7 @@
         <v>96.5</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>28</v>
       </c>
@@ -1267,7 +1493,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -1293,7 +1519,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>28</v>
       </c>
@@ -1316,7 +1542,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1342,7 +1568,7 @@
         <v>40.4</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>23</v>
       </c>
@@ -1365,7 +1591,7 @@
         <v>31.9</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>24</v>
       </c>
@@ -1388,7 +1614,7 @@
         <v>27.7</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -1414,7 +1640,7 @@
         <v>62.7</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>28</v>
       </c>
@@ -1437,7 +1663,7 @@
         <v>37.299999999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -1463,7 +1689,7 @@
         <v>23.9</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>28</v>
       </c>
@@ -1486,7 +1712,7 @@
         <v>76.099999999999994</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -1512,7 +1738,7 @@
         <v>80.599999999999994</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>28</v>
       </c>
@@ -1535,7 +1761,7 @@
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -1561,7 +1787,7 @@
         <v>28.7</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>27</v>
       </c>
@@ -1584,7 +1810,7 @@
         <v>71.3</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -1610,7 +1836,7 @@
         <v>23.9</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>28</v>
       </c>
@@ -1633,7 +1859,7 @@
         <v>76.099999999999994</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -1659,7 +1885,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>28</v>
       </c>
@@ -1682,7 +1908,7 @@
         <v>86.7</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -1708,7 +1934,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>28</v>
       </c>
@@ -1731,7 +1957,7 @@
         <v>95.5</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -1757,7 +1983,7 @@
         <v>80.099999999999994</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>28</v>
       </c>
@@ -1780,7 +2006,7 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>46</v>
       </c>
@@ -1806,7 +2032,7 @@
         <v>55.2</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>28</v>
       </c>
@@ -1829,7 +2055,7 @@
         <v>44.8</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -1855,7 +2081,7 @@
         <v>98.9</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>28</v>
       </c>
@@ -1878,7 +2104,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -1904,7 +2130,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B43" s="7">
         <v>8</v>
       </c>
@@ -1927,7 +2153,7 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B44" s="7">
         <v>9</v>
       </c>
@@ -1950,7 +2176,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B45" s="7">
         <v>10</v>
       </c>
@@ -1973,7 +2199,7 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B46" s="7">
         <v>11</v>
       </c>
@@ -1996,7 +2222,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B47" s="7">
         <v>12</v>
       </c>
@@ -2019,7 +2245,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -2045,7 +2271,7 @@
         <v>63.7</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B49" s="7" t="s">
         <v>49</v>
       </c>
@@ -2068,7 +2294,7 @@
         <v>36.299999999999997</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -2094,7 +2320,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B51" s="7">
         <v>8</v>
       </c>
@@ -2117,7 +2343,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B52" s="7">
         <v>9</v>
       </c>
@@ -2140,7 +2366,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B53" s="7">
         <v>10</v>
       </c>
@@ -2163,7 +2389,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B54" s="7">
         <v>11</v>
       </c>
@@ -2186,7 +2412,7 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B55" s="7">
         <v>12</v>
       </c>
@@ -2209,7 +2435,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B56" s="7" t="s">
         <v>52</v>
       </c>
@@ -2232,7 +2458,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>53</v>
       </c>
@@ -2258,7 +2484,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B58" s="7" t="s">
         <v>50</v>
       </c>
@@ -2281,7 +2507,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B59" s="7" t="s">
         <v>49</v>
       </c>
@@ -2304,7 +2530,7 @@
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="8" t="s">
         <v>55</v>
       </c>
@@ -2330,7 +2556,7 @@
         <v>99.7</v>
       </c>
     </row>
-    <row r="61" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B61" s="9" t="s">
         <v>28</v>
       </c>
@@ -2353,7 +2579,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="62" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="8" t="s">
         <v>54</v>
       </c>
@@ -2379,7 +2605,7 @@
         <v>97.9</v>
       </c>
     </row>
-    <row r="63" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B63" s="9" t="s">
         <v>28</v>
       </c>
@@ -2402,7 +2628,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="64" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="8" t="s">
         <v>56</v>
       </c>
@@ -2428,7 +2654,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="65" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B65" s="9">
         <v>2</v>
       </c>
@@ -2451,7 +2677,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="66" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B66" s="9">
         <v>3</v>
       </c>
@@ -2474,7 +2700,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="67" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B67" s="9">
         <v>4</v>
       </c>
@@ -2497,7 +2723,7 @@
         <v>36.700000000000003</v>
       </c>
     </row>
-    <row r="68" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B68" s="9">
         <v>5</v>
       </c>
@@ -2520,7 +2746,7 @@
         <v>24.6</v>
       </c>
     </row>
-    <row r="69" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B69" s="9" t="s">
         <v>57</v>
       </c>
@@ -2543,7 +2769,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="8" t="s">
         <v>58</v>
       </c>
@@ -2569,7 +2795,7 @@
         <v>96.3</v>
       </c>
     </row>
-    <row r="71" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B71" s="9" t="s">
         <v>28</v>
       </c>
@@ -2592,7 +2818,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="72" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="8" t="s">
         <v>61</v>
       </c>
@@ -2618,7 +2844,7 @@
         <v>64.599999999999994</v>
       </c>
     </row>
-    <row r="73" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B73" s="9" t="s">
         <v>28</v>
       </c>
@@ -2641,7 +2867,7 @@
         <v>35.4</v>
       </c>
     </row>
-    <row r="74" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="8" t="s">
         <v>64</v>
       </c>
@@ -2667,7 +2893,7 @@
         <v>97.7</v>
       </c>
     </row>
-    <row r="75" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B75" s="9" t="s">
         <v>28</v>
       </c>
@@ -2690,7 +2916,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="76" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="8" t="s">
         <v>63</v>
       </c>
@@ -2716,7 +2942,7 @@
         <v>83.6</v>
       </c>
     </row>
-    <row r="77" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B77" s="9" t="s">
         <v>28</v>
       </c>
@@ -2739,7 +2965,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="8" t="s">
         <v>65</v>
       </c>
@@ -2765,7 +2991,7 @@
         <v>83.6</v>
       </c>
     </row>
-    <row r="79" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B79" s="9" t="s">
         <v>28</v>
       </c>
@@ -2788,7 +3014,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="8" t="s">
         <v>66</v>
       </c>
@@ -2814,7 +3040,7 @@
         <v>94.3</v>
       </c>
     </row>
-    <row r="81" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B81" s="9" t="s">
         <v>28</v>
       </c>
@@ -2837,7 +3063,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="82" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="8" t="s">
         <v>86</v>
       </c>
@@ -2863,7 +3089,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="83" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B83" s="9" t="s">
         <v>28</v>
       </c>
@@ -2886,7 +3112,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="84" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="8" t="s">
         <v>87</v>
       </c>
@@ -2912,7 +3138,7 @@
         <v>74.099999999999994</v>
       </c>
     </row>
-    <row r="85" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B85" s="9" t="s">
         <v>28</v>
       </c>
@@ -2935,7 +3161,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="86" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="8" t="s">
         <v>88</v>
       </c>
@@ -2961,7 +3187,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="87" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B87" s="9" t="s">
         <v>28</v>
       </c>
@@ -2984,7 +3210,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="88" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="8" t="s">
         <v>90</v>
       </c>
@@ -3010,7 +3236,7 @@
         <v>83.6</v>
       </c>
     </row>
-    <row r="89" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B89" s="9" t="s">
         <v>28</v>
       </c>
@@ -3033,7 +3259,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="8" t="s">
         <v>89</v>
       </c>
@@ -3059,7 +3285,7 @@
         <v>95.9</v>
       </c>
     </row>
-    <row r="91" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B91" s="9" t="s">
         <v>28</v>
       </c>
@@ -3082,7 +3308,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="92" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="8" t="s">
         <v>91</v>
       </c>
@@ -3108,7 +3334,7 @@
         <v>97.8</v>
       </c>
     </row>
-    <row r="93" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B93" s="9" t="s">
         <v>28</v>
       </c>
@@ -3131,7 +3357,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="94" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="8" t="s">
         <v>92</v>
       </c>
@@ -3157,7 +3383,7 @@
         <v>93.9</v>
       </c>
     </row>
-    <row r="95" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B95" s="9" t="s">
         <v>28</v>
       </c>
@@ -3180,7 +3406,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="96" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="8" t="s">
         <v>93</v>
       </c>
@@ -3206,7 +3432,7 @@
         <v>95.7</v>
       </c>
     </row>
-    <row r="97" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B97" s="9" t="s">
         <v>28</v>
       </c>
@@ -3229,7 +3455,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="98" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="8" t="s">
         <v>94</v>
       </c>
@@ -3255,7 +3481,7 @@
         <v>93.6</v>
       </c>
     </row>
-    <row r="99" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B99" s="9" t="s">
         <v>28</v>
       </c>
@@ -3278,7 +3504,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="100" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="8" t="s">
         <v>95</v>
       </c>
@@ -3304,7 +3530,7 @@
         <v>98.2</v>
       </c>
     </row>
-    <row r="101" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B101" s="9" t="s">
         <v>28</v>
       </c>
@@ -3327,7 +3553,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="102" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="8" t="s">
         <v>96</v>
       </c>
@@ -3353,7 +3579,7 @@
         <v>91.7</v>
       </c>
     </row>
-    <row r="103" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B103" s="9" t="s">
         <v>28</v>
       </c>
@@ -3376,7 +3602,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="104" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="8" t="s">
         <v>97</v>
       </c>
@@ -3402,7 +3628,7 @@
         <v>95.6</v>
       </c>
     </row>
-    <row r="105" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B105" s="9" t="s">
         <v>28</v>
       </c>
@@ -3425,7 +3651,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="106" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="8" t="s">
         <v>98</v>
       </c>
@@ -3451,7 +3677,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="107" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B107" s="9" t="s">
         <v>28</v>
       </c>
@@ -3474,7 +3700,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>30</v>
       </c>
@@ -3500,7 +3726,7 @@
         <v>91.6</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B109" t="s">
         <v>28</v>
       </c>
@@ -3523,7 +3749,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>31</v>
       </c>
@@ -3549,7 +3775,7 @@
         <v>76.7</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B111" t="s">
         <v>28</v>
       </c>
@@ -3590,33 +3816,33 @@
       <selection activeCell="B7" sqref="B6:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="45.109375" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="22" t="s">
+    <row r="2" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22" t="s">
+      <c r="E2" s="25"/>
+      <c r="F2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="22"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G2" s="25"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -3639,7 +3865,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -3662,7 +3888,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -3685,7 +3911,7 @@
         <v>2.92</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -3708,7 +3934,7 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -3731,7 +3957,7 @@
         <v>7.76</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -3754,7 +3980,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -3777,7 +4003,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>60</v>
       </c>
@@ -3800,7 +4026,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>59</v>
       </c>
@@ -3823,7 +4049,7 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>62</v>
       </c>
@@ -3846,7 +4072,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>68</v>
       </c>
@@ -3887,46 +4113,46 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="25"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="28"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>75</v>
       </c>
       <c r="B2" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>70</v>
       </c>
@@ -3934,7 +4160,7 @@
         <v>3325</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>71</v>
       </c>
@@ -3942,7 +4168,7 @@
         <v>0.98699999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>72</v>
       </c>
@@ -3950,7 +4176,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>73</v>
       </c>
@@ -3958,7 +4184,7 @@
         <v>0.89900000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>74</v>
       </c>
@@ -3966,32 +4192,32 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="12"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
+    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>70</v>
       </c>
@@ -3999,7 +4225,7 @@
         <v>3324</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>71</v>
       </c>
@@ -4007,7 +4233,7 @@
         <v>0.95599999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>72</v>
       </c>
@@ -4015,7 +4241,7 @@
         <v>9.7000000000000003E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>73</v>
       </c>
@@ -4023,7 +4249,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>74</v>
       </c>
@@ -4031,30 +4257,30 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
+    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>70</v>
       </c>
@@ -4062,7 +4288,7 @@
         <v>3324</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
         <v>71</v>
       </c>
@@ -4070,7 +4296,7 @@
         <v>0.95599999999999996</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
         <v>72</v>
       </c>
@@ -4078,7 +4304,7 @@
         <v>9.7000000000000003E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>73</v>
       </c>
@@ -4086,7 +4312,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
         <v>74</v>
       </c>
@@ -4094,16 +4320,16 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="23" t="s">
+    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
         <v>67</v>
       </c>
@@ -4111,7 +4337,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
         <v>70</v>
       </c>
@@ -4119,7 +4345,7 @@
         <v>3253</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
         <v>71</v>
       </c>
@@ -4127,7 +4353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
         <v>72</v>
       </c>
@@ -4135,7 +4361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
         <v>73</v>
       </c>
@@ -4143,7 +4369,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
         <v>74</v>
       </c>
@@ -4151,27 +4377,27 @@
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="23" t="s">
+    <row r="41" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="B41" s="23"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B42" s="24" t="s">
+      <c r="B42" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="12" t="s">
         <v>70</v>
       </c>
@@ -4179,7 +4405,7 @@
         <v>2693</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
         <v>71</v>
       </c>
@@ -4187,7 +4413,7 @@
         <v>0.97799999999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="12" t="s">
         <v>72</v>
       </c>
@@ -4195,7 +4421,7 @@
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="12" t="s">
         <v>73</v>
       </c>
@@ -4203,7 +4429,7 @@
         <v>0.28599999999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="12" t="s">
         <v>74</v>
       </c>
@@ -4233,41 +4459,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A99C0C08-3AAF-4198-9235-282B8E2F1964}">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-    </row>
-    <row r="2" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+    </row>
+    <row r="2" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="22" t="s">
+      <c r="D2" s="30"/>
+      <c r="E2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22" t="s">
+      <c r="F2" s="25"/>
+      <c r="G2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="22"/>
-    </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H2" s="25"/>
+    </row>
+    <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>113</v>
       </c>
@@ -4291,12 +4517,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>101</v>
       </c>
@@ -4307,7 +4533,7 @@
         <v>0.53800000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>102</v>
       </c>
@@ -4318,7 +4544,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>103</v>
       </c>
@@ -4329,7 +4555,7 @@
         <v>0.88100000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>104</v>
       </c>
@@ -4340,7 +4566,7 @@
         <v>0.83099999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
         <v>88</v>
       </c>
@@ -4351,7 +4577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>37</v>
       </c>
@@ -4362,7 +4588,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
         <v>12</v>
       </c>
@@ -4373,7 +4599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>17</v>
       </c>
@@ -4384,7 +4610,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
         <v>16</v>
       </c>
@@ -4395,7 +4621,7 @@
         <v>0.22600000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
         <v>18</v>
       </c>
@@ -4406,7 +4632,7 @@
         <v>0.17299999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
         <v>105</v>
       </c>
@@ -4417,7 +4643,7 @@
         <v>8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>8</v>
       </c>
@@ -4428,7 +4654,7 @@
         <v>0.112</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
         <v>36</v>
       </c>
@@ -4439,7 +4665,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
         <v>106</v>
       </c>
@@ -4450,7 +4676,7 @@
         <v>0.53500000000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
         <v>107</v>
       </c>
@@ -4461,7 +4687,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
         <v>108</v>
       </c>
@@ -4472,12 +4698,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
         <v>101</v>
       </c>
@@ -4488,7 +4714,7 @@
         <v>9.9000000000000005E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
         <v>102</v>
       </c>
@@ -4499,7 +4725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
         <v>103</v>
       </c>
@@ -4510,7 +4736,7 @@
         <v>0.67800000000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="16" t="s">
         <v>104</v>
       </c>
@@ -4521,7 +4747,7 @@
         <v>0.874</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
         <v>88</v>
       </c>
@@ -4532,7 +4758,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
         <v>37</v>
       </c>
@@ -4543,7 +4769,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
         <v>12</v>
       </c>
@@ -4554,7 +4780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
         <v>17</v>
       </c>
@@ -4565,7 +4791,7 @@
         <v>0.51300000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
         <v>16</v>
       </c>
@@ -4576,7 +4802,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
         <v>18</v>
       </c>
@@ -4587,7 +4813,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
         <v>105</v>
       </c>
@@ -4598,7 +4824,7 @@
         <v>0.16900000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
         <v>8</v>
       </c>
@@ -4609,7 +4835,7 @@
         <v>9.0999999999999998E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="16" t="s">
         <v>36</v>
       </c>
@@ -4620,7 +4846,7 @@
         <v>0.97799999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="16" t="s">
         <v>106</v>
       </c>
@@ -4631,7 +4857,7 @@
         <v>0.19500000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="16" t="s">
         <v>107</v>
       </c>
@@ -4642,12 +4868,12 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="15" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="16" t="s">
         <v>12</v>
       </c>
@@ -4658,7 +4884,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="16" t="s">
         <v>17</v>
       </c>
@@ -4669,7 +4895,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="16" t="s">
         <v>16</v>
       </c>
@@ -4680,7 +4906,7 @@
         <v>0.82399999999999995</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="16" t="s">
         <v>18</v>
       </c>
@@ -4691,7 +4917,7 @@
         <v>0.42899999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="16" t="s">
         <v>105</v>
       </c>
@@ -4702,7 +4928,7 @@
         <v>0.85899999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="16" t="s">
         <v>8</v>
       </c>
@@ -4713,7 +4939,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="16" t="s">
         <v>36</v>
       </c>
@@ -4724,7 +4950,7 @@
         <v>0.72399999999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="16" t="s">
         <v>106</v>
       </c>
@@ -4735,7 +4961,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="16" t="s">
         <v>107</v>
       </c>
@@ -4746,12 +4972,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="15" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="16" t="s">
         <v>12</v>
       </c>
@@ -4762,7 +4988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="16" t="s">
         <v>17</v>
       </c>
@@ -4773,7 +4999,7 @@
         <v>0.749</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="16" t="s">
         <v>16</v>
       </c>
@@ -4784,7 +5010,7 @@
         <v>0.20200000000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="16" t="s">
         <v>18</v>
       </c>
@@ -4795,7 +5021,7 @@
         <v>0.16400000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="16" t="s">
         <v>105</v>
       </c>
@@ -4806,7 +5032,7 @@
         <v>0.88600000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="16" t="s">
         <v>8</v>
       </c>
@@ -4817,7 +5043,7 @@
         <v>0.41299999999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="16" t="s">
         <v>36</v>
       </c>
@@ -4828,7 +5054,7 @@
         <v>0.151</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="16" t="s">
         <v>106</v>
       </c>
@@ -4839,7 +5065,7 @@
         <v>0.373</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="16" t="s">
         <v>107</v>
       </c>
@@ -4850,7 +5076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="17"/>
     </row>
   </sheetData>
@@ -4865,1184 +5091,565 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD07AAF7-5597-4129-A7A3-390DDF6E9FE7}">
-  <dimension ref="A1:G54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{843A0A7F-1AFC-4323-803F-CC1A2EB096D0}">
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="28"/>
-      <c r="B1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="G1" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" s="31"/>
+      <c r="G2" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="H2" s="31"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="K2" s="31"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" s="33"/>
+      <c r="D3" t="s">
         <v>118</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E3" t="s">
         <v>119</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G3" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="23" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="B4" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="33"/>
+      <c r="D4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="33"/>
+      <c r="D5" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="B3">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="C3">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="D3">
-        <v>0.61499999999999999</v>
-      </c>
-      <c r="E3">
-        <v>0.53800000000000003</v>
-      </c>
-      <c r="F3">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="G3">
-        <v>1.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="B4">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="C4">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="D4">
-        <v>2.3260000000000001</v>
-      </c>
-      <c r="E4">
-        <v>0.02</v>
-      </c>
-      <c r="F4">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G4">
-        <v>4.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="B5">
-        <v>-3.3000000000000002E-2</v>
-      </c>
-      <c r="C5">
-        <v>0.222</v>
-      </c>
-      <c r="D5">
-        <v>-0.14899999999999999</v>
-      </c>
-      <c r="E5">
-        <v>0.88100000000000001</v>
-      </c>
-      <c r="F5">
-        <v>-3.3000000000000002E-2</v>
-      </c>
-      <c r="G5">
-        <v>-0.107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="B6">
-        <v>0.05</v>
-      </c>
-      <c r="C6">
-        <v>0.23200000000000001</v>
-      </c>
-      <c r="D6">
-        <v>0.21299999999999999</v>
-      </c>
-      <c r="E6">
-        <v>0.83099999999999996</v>
-      </c>
-      <c r="F6">
-        <v>0.05</v>
-      </c>
-      <c r="G6">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="B7">
-        <v>7.9000000000000001E-2</v>
-      </c>
-      <c r="C7">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="D7">
-        <v>6.0529999999999999</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>7.9000000000000001E-2</v>
-      </c>
-      <c r="G7">
-        <v>0.11899999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="C8">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="D8">
-        <v>2.9590000000000001</v>
-      </c>
-      <c r="E8">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F8">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="G8">
-        <v>6.4000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
+      <c r="E5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" s="33"/>
+      <c r="D6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="33"/>
+      <c r="D7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8" s="33"/>
+      <c r="D8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8" t="s">
+        <v>155</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="33"/>
+      <c r="D9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E9" t="s">
+        <v>156</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10" s="33"/>
+      <c r="D10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E10" t="s">
+        <v>157</v>
+      </c>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="B9">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="C9">
-        <v>1.2E-2</v>
-      </c>
-      <c r="D9">
-        <v>-5.6680000000000001</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="G9">
-        <v>-0.111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10">
-        <v>0.03</v>
-      </c>
-      <c r="C10">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="D10">
-        <v>2.036</v>
-      </c>
-      <c r="E10">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="F10">
-        <v>0.03</v>
-      </c>
-      <c r="G10">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>-2.7E-2</v>
-      </c>
-      <c r="C11">
-        <v>2.3E-2</v>
-      </c>
-      <c r="D11">
-        <v>-1.2110000000000001</v>
-      </c>
-      <c r="E11">
-        <v>0.22600000000000001</v>
-      </c>
-      <c r="F11">
-        <v>-2.7E-2</v>
-      </c>
-      <c r="G11">
-        <v>-2.3E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12">
-        <v>-4.5999999999999999E-2</v>
-      </c>
-      <c r="C12">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="D12">
-        <v>-1.3620000000000001</v>
-      </c>
-      <c r="E12">
-        <v>0.17299999999999999</v>
-      </c>
-      <c r="F12">
-        <v>-4.5999999999999999E-2</v>
-      </c>
-      <c r="G12">
-        <v>-2.5999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="B13">
-        <v>-7.9000000000000001E-2</v>
-      </c>
-      <c r="C13">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="D13">
-        <v>-1.7190000000000001</v>
-      </c>
-      <c r="E13">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="F13">
-        <v>-7.9000000000000001E-2</v>
-      </c>
-      <c r="G13">
-        <v>-3.3000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="C14">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="D14">
-        <v>1.591</v>
-      </c>
-      <c r="E14">
-        <v>0.112</v>
-      </c>
-      <c r="F14">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="G14">
-        <v>3.1E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15">
-        <v>-3.3000000000000002E-2</v>
-      </c>
-      <c r="C15">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="D15">
-        <v>-2.6659999999999999</v>
-      </c>
-      <c r="E15">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="F15">
-        <v>-3.3000000000000002E-2</v>
-      </c>
-      <c r="G15">
-        <v>-5.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="B16">
-        <v>0.01</v>
-      </c>
-      <c r="C16">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="D16">
-        <v>0.621</v>
-      </c>
-      <c r="E16">
-        <v>0.53500000000000003</v>
-      </c>
-      <c r="F16">
-        <v>0.01</v>
-      </c>
-      <c r="G16">
-        <v>1.4E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="B17">
-        <v>-8.0000000000000002E-3</v>
-      </c>
-      <c r="C17">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="D17">
-        <v>-2.1920000000000002</v>
-      </c>
-      <c r="E17">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="F17">
-        <v>-8.0000000000000002E-3</v>
-      </c>
-      <c r="G17">
-        <v>-4.7E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
+      <c r="B11" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" s="33"/>
+      <c r="D11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E11" t="s">
+        <v>158</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="C12" s="33"/>
+      <c r="D12" t="s">
+        <v>143</v>
+      </c>
+      <c r="E12" t="s">
+        <v>159</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="C13" s="33"/>
+      <c r="D13" t="s">
+        <v>145</v>
+      </c>
+      <c r="E13" t="s">
+        <v>160</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="33"/>
+      <c r="D14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E14" t="s">
+        <v>161</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" s="33"/>
+      <c r="D15" t="s">
+        <v>136</v>
+      </c>
+      <c r="E15" t="s">
+        <v>162</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="C16" s="33"/>
+      <c r="D16" t="s">
+        <v>137</v>
+      </c>
+      <c r="E16" t="s">
+        <v>163</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="C17" s="33"/>
+      <c r="D17" t="s">
+        <v>138</v>
+      </c>
+      <c r="E17" t="s">
+        <v>164</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="C18" s="33"/>
+      <c r="D18" t="s">
+        <v>139</v>
+      </c>
+      <c r="E18" t="s">
+        <v>165</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="H18" s="22" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="33"/>
+      <c r="D19" t="s">
+        <v>140</v>
+      </c>
+      <c r="E19" t="s">
+        <v>166</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="H19" s="22" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="33"/>
+      <c r="D20" t="s">
+        <v>141</v>
+      </c>
+      <c r="E20" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21" s="33"/>
+      <c r="D21" t="s">
+        <v>147</v>
+      </c>
+      <c r="E21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="B18">
-        <v>0.82899999999999996</v>
-      </c>
-      <c r="C18">
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="D18">
-        <v>12.015000000000001</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0.82899999999999996</v>
-      </c>
-      <c r="G18">
-        <v>0.49199999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
+      <c r="C22" s="33"/>
+      <c r="D22" t="s">
+        <v>149</v>
+      </c>
+      <c r="E22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B23" s="23" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="B20">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C20">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="D20">
-        <v>1.6519999999999999</v>
-      </c>
-      <c r="E20">
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="F20">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="G20">
-        <v>4.2000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="B21">
-        <v>2.7E-2</v>
-      </c>
-      <c r="C21">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="D21">
-        <v>6.2290000000000001</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>2.7E-2</v>
-      </c>
-      <c r="G21">
-        <v>0.14699999999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="B22">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="C22">
-        <v>0.09</v>
-      </c>
-      <c r="D22">
-        <v>0.41499999999999998</v>
-      </c>
-      <c r="E22">
-        <v>0.67800000000000005</v>
-      </c>
-      <c r="F22">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="G22">
-        <v>0.20300000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="B23">
-        <v>-1.6E-2</v>
-      </c>
-      <c r="C23">
-        <v>0.1</v>
-      </c>
-      <c r="D23">
-        <v>-0.159</v>
-      </c>
-      <c r="E23">
-        <v>0.874</v>
-      </c>
-      <c r="F23">
-        <v>-1.6E-2</v>
-      </c>
-      <c r="G23">
-        <v>-8.5999999999999993E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="B24">
-        <v>1.9E-2</v>
-      </c>
-      <c r="C24">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="D24">
-        <v>2.121</v>
-      </c>
-      <c r="E24">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="F24">
-        <v>1.9E-2</v>
-      </c>
-      <c r="G24">
-        <v>4.9000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="C25">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="D25">
-        <v>2.702</v>
-      </c>
-      <c r="E25">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="F25">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="G25">
-        <v>6.9000000000000006E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="B26">
-        <v>-4.2000000000000003E-2</v>
-      </c>
-      <c r="C26">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="D26">
-        <v>-4.9370000000000003</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>-4.2000000000000003E-2</v>
-      </c>
-      <c r="G26">
-        <v>-0.112</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27">
-        <v>-7.0000000000000001E-3</v>
-      </c>
-      <c r="C27">
-        <v>0.01</v>
-      </c>
-      <c r="D27">
-        <v>-0.65500000000000003</v>
-      </c>
-      <c r="E27">
-        <v>0.51300000000000001</v>
-      </c>
-      <c r="F27">
-        <v>-7.0000000000000001E-3</v>
-      </c>
-      <c r="G27">
-        <v>-1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28">
-        <v>0.03</v>
-      </c>
-      <c r="C28">
-        <v>1.6E-2</v>
-      </c>
-      <c r="D28">
-        <v>1.923</v>
-      </c>
-      <c r="E28">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="F28">
-        <v>0.03</v>
-      </c>
-      <c r="G28">
-        <v>4.3999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="B29">
-        <v>1E-3</v>
-      </c>
-      <c r="C29">
-        <v>2.4E-2</v>
-      </c>
-      <c r="D29">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="E29">
-        <v>0.97</v>
-      </c>
-      <c r="F29">
-        <v>1E-3</v>
-      </c>
-      <c r="G29">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="B30">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="C30">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="D30">
-        <v>1.3740000000000001</v>
-      </c>
-      <c r="E30">
-        <v>0.16900000000000001</v>
-      </c>
-      <c r="F30">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="G30">
-        <v>3.1E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31">
-        <v>-5.0000000000000001E-3</v>
-      </c>
-      <c r="C31">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="D31">
-        <v>-1.6879999999999999</v>
-      </c>
-      <c r="E31">
-        <v>9.0999999999999998E-2</v>
-      </c>
-      <c r="F31">
-        <v>-5.0000000000000001E-3</v>
-      </c>
-      <c r="G31">
-        <v>-3.9E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="D32">
-        <v>2.7E-2</v>
-      </c>
-      <c r="E32">
-        <v>0.97799999999999998</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="B33">
-        <v>-1.4999999999999999E-2</v>
-      </c>
-      <c r="C33">
-        <v>1.2E-2</v>
-      </c>
-      <c r="D33">
-        <v>-1.296</v>
-      </c>
-      <c r="E33">
-        <v>0.19500000000000001</v>
-      </c>
-      <c r="F33">
-        <v>-1.4999999999999999E-2</v>
-      </c>
-      <c r="G33">
-        <v>-3.4000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="B34">
-        <v>-7.0000000000000001E-3</v>
-      </c>
-      <c r="C34">
-        <v>2E-3</v>
-      </c>
-      <c r="D34">
-        <v>-2.6930000000000001</v>
-      </c>
-      <c r="E34">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="F34">
-        <v>-7.0000000000000001E-3</v>
-      </c>
-      <c r="G34">
-        <v>-6.7000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="28" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="B36">
-        <v>-0.17499999999999999</v>
-      </c>
-      <c r="C36">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="D36">
-        <v>-3.3660000000000001</v>
-      </c>
-      <c r="E36">
-        <v>1E-3</v>
-      </c>
-      <c r="F36">
-        <v>-0.17199999999999999</v>
-      </c>
-      <c r="G36">
-        <v>-8.5000000000000006E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="B37">
-        <v>0.19500000000000001</v>
-      </c>
-      <c r="C37">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="D37">
-        <v>3.0009999999999999</v>
-      </c>
-      <c r="E37">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F37">
-        <v>0.191</v>
-      </c>
-      <c r="G37">
-        <v>7.8E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="B38">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="C38">
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="D38">
-        <v>0.222</v>
-      </c>
-      <c r="E38">
-        <v>0.82399999999999995</v>
-      </c>
-      <c r="F38">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="G38">
-        <v>6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="B39">
-        <v>-0.11799999999999999</v>
-      </c>
-      <c r="C39">
-        <v>0.14899999999999999</v>
-      </c>
-      <c r="D39">
-        <v>-0.79100000000000004</v>
-      </c>
-      <c r="E39">
-        <v>0.42899999999999999</v>
-      </c>
-      <c r="F39">
-        <v>-0.11600000000000001</v>
-      </c>
-      <c r="G39">
-        <v>-0.02</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="B40">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="C40">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="D40">
-        <v>0.17699999999999999</v>
-      </c>
-      <c r="E40">
-        <v>0.85899999999999999</v>
-      </c>
-      <c r="F40">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="G40">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B41">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="C41">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="D41">
-        <v>3.363</v>
-      </c>
-      <c r="E41">
-        <v>1E-3</v>
-      </c>
-      <c r="F41">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="G41">
-        <v>8.7999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="B42">
-        <v>-0.02</v>
-      </c>
-      <c r="C42">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="D42">
-        <v>-0.35299999999999998</v>
-      </c>
-      <c r="E42">
-        <v>0.72399999999999998</v>
-      </c>
-      <c r="F42">
-        <v>-1.9E-2</v>
-      </c>
-      <c r="G42">
-        <v>-8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="B43">
-        <v>-0.107</v>
-      </c>
-      <c r="C43">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="D43">
-        <v>-1.6539999999999999</v>
-      </c>
-      <c r="E43">
-        <v>9.8000000000000004E-2</v>
-      </c>
-      <c r="F43">
-        <v>-0.105</v>
-      </c>
-      <c r="G43">
-        <v>-4.2999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="B44">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="C44">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="D44">
-        <v>-4.6139999999999999</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>-6.9000000000000006E-2</v>
-      </c>
-      <c r="G44">
-        <v>-0.129</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="28" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="B46">
-        <v>-0.19600000000000001</v>
-      </c>
-      <c r="C46">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="D46">
-        <v>-4.0030000000000001</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>-0.19400000000000001</v>
-      </c>
-      <c r="G46">
-        <v>-9.6000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="B47">
-        <v>-1.9E-2</v>
-      </c>
-      <c r="C47">
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="D47">
-        <v>-0.31900000000000001</v>
-      </c>
-      <c r="E47">
-        <v>0.749</v>
-      </c>
-      <c r="F47">
-        <v>-1.9E-2</v>
-      </c>
-      <c r="G47">
-        <v>-8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="B48">
-        <v>0.11899999999999999</v>
-      </c>
-      <c r="C48">
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="D48">
-        <v>1.2749999999999999</v>
-      </c>
-      <c r="E48">
-        <v>0.20200000000000001</v>
-      </c>
-      <c r="F48">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="G48">
-        <v>3.1E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="B49">
-        <v>0.19600000000000001</v>
-      </c>
-      <c r="C49">
-        <v>0.14099999999999999</v>
-      </c>
-      <c r="D49">
-        <v>1.391</v>
-      </c>
-      <c r="E49">
-        <v>0.16400000000000001</v>
-      </c>
-      <c r="F49">
-        <v>0.19400000000000001</v>
-      </c>
-      <c r="G49">
-        <v>3.4000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="B50">
-        <v>-2.8000000000000001E-2</v>
-      </c>
-      <c r="C50">
-        <v>0.193</v>
-      </c>
-      <c r="D50">
-        <v>-0.14399999999999999</v>
-      </c>
-      <c r="E50">
-        <v>0.88600000000000001</v>
-      </c>
-      <c r="F50">
-        <v>-2.7E-2</v>
-      </c>
-      <c r="G50">
-        <v>-4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B51">
-        <v>1.4E-2</v>
-      </c>
-      <c r="C51">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="D51">
-        <v>0.81899999999999995</v>
-      </c>
-      <c r="E51">
-        <v>0.41299999999999998</v>
-      </c>
-      <c r="F51">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="G51">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="B52">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="C52">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="D52">
-        <v>1.4350000000000001</v>
-      </c>
-      <c r="E52">
-        <v>0.151</v>
-      </c>
-      <c r="F52">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="G52">
-        <v>3.6999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="B53">
-        <v>-5.3999999999999999E-2</v>
-      </c>
-      <c r="C53">
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="D53">
-        <v>-0.89</v>
-      </c>
-      <c r="E53">
-        <v>0.373</v>
-      </c>
-      <c r="F53">
-        <v>-5.3999999999999999E-2</v>
-      </c>
-      <c r="G53">
-        <v>-2.1999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="B54">
-        <v>-5.2999999999999999E-2</v>
-      </c>
-      <c r="C54">
-        <v>1.4E-2</v>
-      </c>
-      <c r="D54">
-        <v>-3.7330000000000001</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <v>-5.2999999999999999E-2</v>
-      </c>
-      <c r="G54">
-        <v>-9.9000000000000005E-2</v>
-      </c>
+      <c r="C23" s="33"/>
+      <c r="D23" t="s">
+        <v>150</v>
+      </c>
+      <c r="E23" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" s="33"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" s="33"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" s="33"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="C27" s="33"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="C28" s="33"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="C29" s="33"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="C30" s="33"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="C31" s="33"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C32" s="33"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="22"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="33"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C34" s="33"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="G1:K1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/ADD Health/Tables.xlsx
+++ b/ADD Health/Tables.xlsx
@@ -5095,7 +5095,7 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/ADD Health/Tables.xlsx
+++ b/ADD Health/Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d474aaa2186e9c7/R Projects/ADD Health/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1802" documentId="8_{D6B047E2-CEDE-41F6-B569-3E29F4A4A8CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B38F5F14-E276-471D-B694-11B60D96912C}"/>
+  <xr:revisionPtr revIDLastSave="1807" documentId="8_{D6B047E2-CEDE-41F6-B569-3E29F4A4A8CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2B4127F6-5A17-420C-B3A3-C463E1E849EB}"/>
   <bookViews>
-    <workbookView xWindow="5856" yWindow="0" windowWidth="17280" windowHeight="8964" firstSheet="2" activeTab="4" xr2:uid="{BFB63638-E53B-431D-8D94-81A32DF8B432}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="4" xr2:uid="{BFB63638-E53B-431D-8D94-81A32DF8B432}"/>
   </bookViews>
   <sheets>
     <sheet name="Demographics" sheetId="1" r:id="rId1"/>
@@ -704,7 +704,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -714,6 +714,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -730,7 +736,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -777,6 +783,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -804,7 +811,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1140,18 +1147,18 @@
       <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24" t="s">
+      <c r="D2" s="25"/>
+      <c r="E2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24" t="s">
+      <c r="F2" s="25"/>
+      <c r="G2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="24"/>
+      <c r="H2" s="25"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -3829,18 +3836,18 @@
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25" t="s">
+      <c r="E2" s="26"/>
+      <c r="F2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="25"/>
+      <c r="G2" s="26"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -4119,10 +4126,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="29"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -4131,26 +4138,26 @@
       <c r="B2" s="3"/>
     </row>
     <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
@@ -4196,26 +4203,26 @@
       <c r="A12" s="12"/>
     </row>
     <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
@@ -4258,27 +4265,27 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
@@ -4321,13 +4328,13 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="26" t="s">
+      <c r="A32" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
@@ -4378,24 +4385,24 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="26" t="s">
+      <c r="A41" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B42" s="27" t="s">
+      <c r="B42" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="12" t="s">
@@ -4471,27 +4478,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
     </row>
     <row r="2" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="25" t="s">
+      <c r="D2" s="31"/>
+      <c r="E2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25" t="s">
+      <c r="F2" s="26"/>
+      <c r="G2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="25"/>
+      <c r="H2" s="26"/>
     </row>
     <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -5095,51 +5102,52 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.88671875" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="G1" s="32" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="G1" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="31"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="21"/>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="31"/>
-      <c r="G2" s="31" t="s">
+      <c r="E2" s="32"/>
+      <c r="G2" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="H2" s="31"/>
+      <c r="H2" s="32"/>
       <c r="I2" s="21"/>
-      <c r="J2" s="31" t="s">
+      <c r="J2" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="K2" s="31"/>
+      <c r="K2" s="32"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
@@ -5148,7 +5156,7 @@
       <c r="B3" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="C3" s="33"/>
+      <c r="C3" s="24"/>
       <c r="D3" t="s">
         <v>118</v>
       </c>
@@ -5169,7 +5177,7 @@
       <c r="B4" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="C4" s="33"/>
+      <c r="C4" s="24"/>
       <c r="D4" t="s">
         <v>130</v>
       </c>
@@ -5190,7 +5198,7 @@
       <c r="B5" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="C5" s="33"/>
+      <c r="C5" s="24"/>
       <c r="D5" t="s">
         <v>121</v>
       </c>
@@ -5211,7 +5219,7 @@
       <c r="B6" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="C6" s="33"/>
+      <c r="C6" s="24"/>
       <c r="D6" t="s">
         <v>124</v>
       </c>
@@ -5232,7 +5240,7 @@
       <c r="B7" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="33"/>
+      <c r="C7" s="24"/>
       <c r="D7" t="s">
         <v>129</v>
       </c>
@@ -5253,7 +5261,7 @@
       <c r="B8" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="C8" s="33"/>
+      <c r="C8" s="24"/>
       <c r="D8" t="s">
         <v>127</v>
       </c>
@@ -5274,7 +5282,7 @@
       <c r="B9" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="C9" s="33"/>
+      <c r="C9" s="24"/>
       <c r="D9" t="s">
         <v>131</v>
       </c>
@@ -5295,7 +5303,7 @@
       <c r="B10" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="C10" s="33"/>
+      <c r="C10" s="24"/>
       <c r="D10" t="s">
         <v>133</v>
       </c>
@@ -5312,7 +5320,7 @@
       <c r="B11" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="C11" s="33"/>
+      <c r="C11" s="24"/>
       <c r="D11" t="s">
         <v>134</v>
       </c>
@@ -5333,7 +5341,7 @@
       <c r="B12" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="C12" s="33"/>
+      <c r="C12" s="24"/>
       <c r="D12" t="s">
         <v>143</v>
       </c>
@@ -5354,7 +5362,7 @@
       <c r="B13" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="C13" s="33"/>
+      <c r="C13" s="24"/>
       <c r="D13" t="s">
         <v>145</v>
       </c>
@@ -5371,7 +5379,7 @@
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="22"/>
       <c r="B14" s="22"/>
-      <c r="C14" s="33"/>
+      <c r="C14" s="24"/>
       <c r="D14" t="s">
         <v>135</v>
       </c>
@@ -5392,7 +5400,7 @@
       <c r="B15" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="C15" s="33"/>
+      <c r="C15" s="24"/>
       <c r="D15" t="s">
         <v>136</v>
       </c>
@@ -5413,7 +5421,7 @@
       <c r="B16" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="C16" s="33"/>
+      <c r="C16" s="24"/>
       <c r="D16" t="s">
         <v>137</v>
       </c>
@@ -5434,7 +5442,7 @@
       <c r="B17" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="C17" s="33"/>
+      <c r="C17" s="24"/>
       <c r="D17" t="s">
         <v>138</v>
       </c>
@@ -5455,7 +5463,7 @@
       <c r="B18" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="C18" s="33"/>
+      <c r="C18" s="24"/>
       <c r="D18" t="s">
         <v>139</v>
       </c>
@@ -5476,7 +5484,7 @@
       <c r="B19" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="C19" s="33"/>
+      <c r="C19" s="24"/>
       <c r="D19" t="s">
         <v>140</v>
       </c>
@@ -5493,7 +5501,7 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="22"/>
       <c r="B20" s="22"/>
-      <c r="C20" s="33"/>
+      <c r="C20" s="24"/>
       <c r="D20" t="s">
         <v>141</v>
       </c>
@@ -5508,7 +5516,7 @@
       <c r="B21" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="C21" s="33"/>
+      <c r="C21" s="24"/>
       <c r="D21" t="s">
         <v>147</v>
       </c>
@@ -5523,7 +5531,7 @@
       <c r="B22" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="C22" s="33"/>
+      <c r="C22" s="24"/>
       <c r="D22" t="s">
         <v>149</v>
       </c>
@@ -5538,7 +5546,7 @@
       <c r="B23" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="C23" s="33"/>
+      <c r="C23" s="24"/>
       <c r="D23" t="s">
         <v>150</v>
       </c>
@@ -5553,7 +5561,7 @@
       <c r="B24" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="C24" s="33"/>
+      <c r="C24" s="24"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="23" t="s">
@@ -5562,7 +5570,7 @@
       <c r="B25" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="C25" s="33"/>
+      <c r="C25" s="24"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="23" t="s">
@@ -5571,7 +5579,7 @@
       <c r="B26" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="C26" s="33"/>
+      <c r="C26" s="24"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="23" t="s">
@@ -5580,7 +5588,7 @@
       <c r="B27" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="C27" s="33"/>
+      <c r="C27" s="24"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="23" t="s">
@@ -5589,7 +5597,7 @@
       <c r="B28" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="C28" s="33"/>
+      <c r="C28" s="24"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="23" t="s">
@@ -5598,7 +5606,7 @@
       <c r="B29" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="C29" s="33"/>
+      <c r="C29" s="24"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="23" t="s">
@@ -5607,7 +5615,7 @@
       <c r="B30" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="C30" s="33"/>
+      <c r="C30" s="24"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="23" t="s">
@@ -5616,7 +5624,7 @@
       <c r="B31" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="C31" s="33"/>
+      <c r="C31" s="24"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="23" t="s">
@@ -5625,12 +5633,12 @@
       <c r="B32" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="C32" s="33"/>
+      <c r="C32" s="24"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="22"/>
       <c r="B33" s="22"/>
-      <c r="C33" s="33"/>
+      <c r="C33" s="24"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="23" t="s">
@@ -5639,7 +5647,7 @@
       <c r="B34" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="C34" s="33"/>
+      <c r="C34" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/ADD Health/Tables.xlsx
+++ b/ADD Health/Tables.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d474aaa2186e9c7/R Projects/ADD Health/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1807" documentId="8_{D6B047E2-CEDE-41F6-B569-3E29F4A4A8CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2B4127F6-5A17-420C-B3A3-C463E1E849EB}"/>
+  <xr:revisionPtr revIDLastSave="1874" documentId="8_{D6B047E2-CEDE-41F6-B569-3E29F4A4A8CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{98596F13-FD65-41D9-89B0-7C2A1C2AE0B1}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="4" xr2:uid="{BFB63638-E53B-431D-8D94-81A32DF8B432}"/>
+    <workbookView xWindow="13836" yWindow="3072" windowWidth="17280" windowHeight="8964" firstSheet="1" activeTab="4" xr2:uid="{BFB63638-E53B-431D-8D94-81A32DF8B432}"/>
   </bookViews>
   <sheets>
-    <sheet name="Demographics" sheetId="1" r:id="rId1"/>
-    <sheet name="Demographics Continuous" sheetId="2" r:id="rId2"/>
+    <sheet name="Categorical" sheetId="1" r:id="rId1"/>
+    <sheet name="Continuous" sheetId="2" r:id="rId2"/>
     <sheet name="CFA" sheetId="5" r:id="rId3"/>
     <sheet name="SEM" sheetId="6" r:id="rId4"/>
     <sheet name="Testing" sheetId="7" r:id="rId5"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="203">
   <si>
     <t>Table 1:  Demographic profile of sample (n=3342)</t>
   </si>
@@ -609,10 +609,43 @@
     <t>H1DS11</t>
   </si>
   <si>
-    <t>H1DS8</t>
-  </si>
-  <si>
     <t>H3DS9</t>
+  </si>
+  <si>
+    <t>AdultStealMore</t>
+  </si>
+  <si>
+    <t>AdultStealLess</t>
+  </si>
+  <si>
+    <t>AdultGun</t>
+  </si>
+  <si>
+    <t>AdultShootStab</t>
+  </si>
+  <si>
+    <t>AdultOtherProperty</t>
+  </si>
+  <si>
+    <t>AdultPhysicalAttack</t>
+  </si>
+  <si>
+    <t>AdultAttack</t>
+  </si>
+  <si>
+    <t>AdultDestroyProperty</t>
+  </si>
+  <si>
+    <t>H3DS5</t>
+  </si>
+  <si>
+    <t>AdultSellDrugs</t>
+  </si>
+  <si>
+    <t>AdultStolenCard</t>
+  </si>
+  <si>
+    <t>H4DS9</t>
   </si>
 </sst>
 </file>
@@ -784,6 +817,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -811,7 +845,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1128,8 +1161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01CE7B78-B8E0-46FF-81CA-D93AE7D32E2B}">
   <dimension ref="A1:H111"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="A108" sqref="A108"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1147,18 +1180,18 @@
       <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25" t="s">
+      <c r="D2" s="26"/>
+      <c r="E2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25" t="s">
+      <c r="F2" s="26"/>
+      <c r="G2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="25"/>
+      <c r="H2" s="26"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -3820,7 +3853,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B6:B7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3836,18 +3869,18 @@
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26" t="s">
+      <c r="E2" s="27"/>
+      <c r="F2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="26"/>
+      <c r="G2" s="27"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -4126,10 +4159,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="30"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -4138,26 +4171,26 @@
       <c r="B2" s="3"/>
     </row>
     <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
@@ -4203,26 +4236,26 @@
       <c r="A12" s="12"/>
     </row>
     <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
@@ -4265,27 +4298,27 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
@@ -4328,13 +4361,13 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="27" t="s">
+      <c r="A32" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
@@ -4385,24 +4418,24 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="27" t="s">
+      <c r="A41" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B42" s="28" t="s">
+      <c r="B42" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="12" t="s">
@@ -4478,27 +4511,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
     </row>
     <row r="2" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="26" t="s">
+      <c r="D2" s="32"/>
+      <c r="E2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26" t="s">
+      <c r="F2" s="27"/>
+      <c r="G2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="26"/>
+      <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -5101,8 +5134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{843A0A7F-1AFC-4323-803F-CC1A2EB096D0}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5110,44 +5143,45 @@
     <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.88671875" customWidth="1"/>
     <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="34"/>
+    <col min="6" max="6" width="8.88671875" style="25"/>
+    <col min="11" max="11" width="18.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="G1" s="33" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="G1" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="32"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="21"/>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="32"/>
-      <c r="G2" s="32" t="s">
+      <c r="E2" s="33"/>
+      <c r="G2" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="H2" s="32"/>
+      <c r="H2" s="33"/>
       <c r="I2" s="21"/>
-      <c r="J2" s="32" t="s">
+      <c r="J2" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="K2" s="32"/>
+      <c r="K2" s="33"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
@@ -5163,11 +5197,17 @@
       <c r="E3" t="s">
         <v>119</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="23" t="s">
         <v>177</v>
+      </c>
+      <c r="J3" t="s">
+        <v>186</v>
+      </c>
+      <c r="K3" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -5184,11 +5224,17 @@
       <c r="E4" t="s">
         <v>151</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="23" t="s">
         <v>178</v>
+      </c>
+      <c r="J4" t="s">
+        <v>185</v>
+      </c>
+      <c r="K4" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -5205,11 +5251,17 @@
       <c r="E5" t="s">
         <v>152</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="23" t="s">
         <v>179</v>
+      </c>
+      <c r="J5" t="s">
+        <v>183</v>
+      </c>
+      <c r="K5" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -5226,11 +5278,17 @@
       <c r="E6" t="s">
         <v>153</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="H6" s="22" t="s">
+      <c r="H6" s="23" t="s">
         <v>180</v>
+      </c>
+      <c r="J6" t="s">
+        <v>180</v>
+      </c>
+      <c r="K6" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -5247,11 +5305,17 @@
       <c r="E7" t="s">
         <v>154</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="H7" s="23" t="s">
         <v>181</v>
+      </c>
+      <c r="J7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K7" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -5268,11 +5332,17 @@
       <c r="E8" t="s">
         <v>155</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="H8" s="22" t="s">
+      <c r="H8" s="23" t="s">
         <v>182</v>
+      </c>
+      <c r="J8" t="s">
+        <v>177</v>
+      </c>
+      <c r="K8" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -5289,11 +5359,17 @@
       <c r="E9" t="s">
         <v>156</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="G9" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="H9" s="22" t="s">
+      <c r="H9" s="23" t="s">
         <v>183</v>
+      </c>
+      <c r="J9" t="s">
+        <v>179</v>
+      </c>
+      <c r="K9" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -5312,6 +5388,12 @@
       </c>
       <c r="G10" s="22"/>
       <c r="H10" s="22"/>
+      <c r="J10" t="s">
+        <v>187</v>
+      </c>
+      <c r="K10" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="23" t="s">
@@ -5327,11 +5409,17 @@
       <c r="E11" t="s">
         <v>158</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="G11" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="H11" s="22" t="s">
+      <c r="H11" s="23" t="s">
         <v>184</v>
+      </c>
+      <c r="J11" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="K11" s="22" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -5348,11 +5436,17 @@
       <c r="E12" t="s">
         <v>159</v>
       </c>
-      <c r="G12" s="22" t="s">
+      <c r="G12" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="H12" s="22" t="s">
+      <c r="H12" s="23" t="s">
         <v>185</v>
+      </c>
+      <c r="J12" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="K12" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -5369,11 +5463,17 @@
       <c r="E13" t="s">
         <v>160</v>
       </c>
-      <c r="G13" s="22" t="s">
+      <c r="G13" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="H13" s="22" t="s">
+      <c r="H13" s="23" t="s">
         <v>186</v>
+      </c>
+      <c r="J13" t="s">
+        <v>199</v>
+      </c>
+      <c r="K13" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -5386,11 +5486,17 @@
       <c r="E14" t="s">
         <v>161</v>
       </c>
-      <c r="G14" s="22" t="s">
+      <c r="G14" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="H14" s="22" t="s">
+      <c r="H14" s="23" t="s">
         <v>187</v>
+      </c>
+      <c r="J14" t="s">
+        <v>184</v>
+      </c>
+      <c r="K14" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -5413,6 +5519,12 @@
       <c r="H15" s="22" t="s">
         <v>188</v>
       </c>
+      <c r="J15" t="s">
+        <v>190</v>
+      </c>
+      <c r="K15" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="23" t="s">
@@ -5428,11 +5540,17 @@
       <c r="E16" t="s">
         <v>163</v>
       </c>
-      <c r="G16" s="22" t="s">
+      <c r="G16" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="H16" s="22" t="s">
+      <c r="H16" s="23" t="s">
         <v>121</v>
+      </c>
+      <c r="J16" t="s">
+        <v>202</v>
+      </c>
+      <c r="K16" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -5470,10 +5588,10 @@
       <c r="E18" t="s">
         <v>165</v>
       </c>
-      <c r="G18" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="H18" s="22" t="s">
+      <c r="G18" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="H18" s="23" t="s">
         <v>190</v>
       </c>
     </row>
@@ -5490,12 +5608,6 @@
       </c>
       <c r="E19" t="s">
         <v>166</v>
-      </c>
-      <c r="G19" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="H19" s="22" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">

--- a/ADD Health/Tables.xlsx
+++ b/ADD Health/Tables.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d474aaa2186e9c7/R Projects/ADD Health/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1874" documentId="8_{D6B047E2-CEDE-41F6-B569-3E29F4A4A8CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{98596F13-FD65-41D9-89B0-7C2A1C2AE0B1}"/>
+  <xr:revisionPtr revIDLastSave="1942" documentId="8_{D6B047E2-CEDE-41F6-B569-3E29F4A4A8CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B2D857A9-AE1C-4B16-801B-E10AF38D474E}"/>
   <bookViews>
-    <workbookView xWindow="13836" yWindow="3072" windowWidth="17280" windowHeight="8964" firstSheet="1" activeTab="4" xr2:uid="{BFB63638-E53B-431D-8D94-81A32DF8B432}"/>
+    <workbookView xWindow="2220" yWindow="1584" windowWidth="17280" windowHeight="8964" activeTab="5" xr2:uid="{BFB63638-E53B-431D-8D94-81A32DF8B432}"/>
   </bookViews>
   <sheets>
     <sheet name="Categorical" sheetId="1" r:id="rId1"/>
     <sheet name="Continuous" sheetId="2" r:id="rId2"/>
     <sheet name="CFA" sheetId="5" r:id="rId3"/>
     <sheet name="SEM" sheetId="6" r:id="rId4"/>
-    <sheet name="Testing" sheetId="7" r:id="rId5"/>
+    <sheet name="Delinquency&amp;Crime" sheetId="7" r:id="rId5"/>
+    <sheet name="ACEs" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="238">
   <si>
     <t>Table 1:  Demographic profile of sample (n=3342)</t>
   </si>
@@ -646,6 +647,111 @@
   </si>
   <si>
     <t>H4DS9</t>
+  </si>
+  <si>
+    <t>ACEs</t>
+  </si>
+  <si>
+    <t>Supervisory Neglect</t>
+  </si>
+  <si>
+    <t>Emotional Neglect</t>
+  </si>
+  <si>
+    <t>Physical Abuse</t>
+  </si>
+  <si>
+    <t>Emotional Abuse</t>
+  </si>
+  <si>
+    <t>Sexual Abuse</t>
+  </si>
+  <si>
+    <t>Suicidal Attempt of household adults</t>
+  </si>
+  <si>
+    <t>Parental Alcohol Misuse</t>
+  </si>
+  <si>
+    <t>Parental Separation / Divorce</t>
+  </si>
+  <si>
+    <t>Household adult incarceration</t>
+  </si>
+  <si>
+    <t>Experience in the foster care system</t>
+  </si>
+  <si>
+    <t>Direct witnessing of violence</t>
+  </si>
+  <si>
+    <t>Being the victim of violence</t>
+  </si>
+  <si>
+    <t>H1PF23</t>
+  </si>
+  <si>
+    <t>H1PF1</t>
+  </si>
+  <si>
+    <t>SlapHitKick</t>
+  </si>
+  <si>
+    <t>HurtFeelings</t>
+  </si>
+  <si>
+    <t>Touched</t>
+  </si>
+  <si>
+    <t>H1SU6</t>
+  </si>
+  <si>
+    <t>BingeDrink</t>
+  </si>
+  <si>
+    <t>FosterHome</t>
+  </si>
+  <si>
+    <t>H4WP3</t>
+  </si>
+  <si>
+    <t>H4WP30</t>
+  </si>
+  <si>
+    <t>H4WP16</t>
+  </si>
+  <si>
+    <t>H4WP9</t>
+  </si>
+  <si>
+    <t>JH1FV1</t>
+  </si>
+  <si>
+    <t>JH1FV2</t>
+  </si>
+  <si>
+    <t>JH1FV3</t>
+  </si>
+  <si>
+    <t>JH1FV4</t>
+  </si>
+  <si>
+    <t>HomeAlone</t>
+  </si>
+  <si>
+    <t>aceSuicide</t>
+  </si>
+  <si>
+    <t>aceVictim</t>
+  </si>
+  <si>
+    <t>aceEmotionalNeglect</t>
+  </si>
+  <si>
+    <t>aceParentJail</t>
+  </si>
+  <si>
+    <t>aceWitnessViolence</t>
   </si>
 </sst>
 </file>
@@ -769,7 +875,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -818,6 +924,7 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1161,8 +1268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01CE7B78-B8E0-46FF-81CA-D93AE7D32E2B}">
   <dimension ref="A1:H111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1180,18 +1287,18 @@
       <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26" t="s">
+      <c r="D2" s="27"/>
+      <c r="E2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26" t="s">
+      <c r="F2" s="27"/>
+      <c r="G2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="26"/>
+      <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -3869,18 +3976,18 @@
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27" t="s">
+      <c r="C2" s="28"/>
+      <c r="D2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27" t="s">
+      <c r="E2" s="28"/>
+      <c r="F2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="27"/>
+      <c r="G2" s="28"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -4159,10 +4266,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="30"/>
+      <c r="B1" s="31"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -4171,26 +4278,26 @@
       <c r="B2" s="3"/>
     </row>
     <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
@@ -4236,26 +4343,26 @@
       <c r="A12" s="12"/>
     </row>
     <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
@@ -4298,27 +4405,27 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
@@ -4361,13 +4468,13 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
@@ -4418,24 +4525,24 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="28" t="s">
+      <c r="A41" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B42" s="29" t="s">
+      <c r="B42" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="12" t="s">
@@ -4511,27 +4618,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
     </row>
     <row r="2" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="27" t="s">
+      <c r="D2" s="33"/>
+      <c r="E2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27" t="s">
+      <c r="F2" s="28"/>
+      <c r="G2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="27"/>
+      <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -5134,7 +5241,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{843A0A7F-1AFC-4323-803F-CC1A2EB096D0}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
@@ -5148,40 +5255,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="G1" s="34" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="G1" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="33"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="21"/>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="G2" s="33" t="s">
+      <c r="E2" s="34"/>
+      <c r="G2" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="H2" s="33"/>
+      <c r="H2" s="34"/>
       <c r="I2" s="21"/>
-      <c r="J2" s="33" t="s">
+      <c r="J2" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="K2" s="33"/>
+      <c r="K2" s="34"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
@@ -5773,4 +5880,194 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C0F7A1-0B87-4DED-BFAA-2AC7DF9DD793}">
+  <dimension ref="A1:B31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="31.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="B4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="26" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="26" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="26" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="B13" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="26" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="26" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="B19" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="13" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="13" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="13" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="13" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="26" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="13" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="B26" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="13" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="B28" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="13" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="13" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="13" t="s">
+        <v>231</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/ADD Health/Tables.xlsx
+++ b/ADD Health/Tables.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1942" documentId="8_{D6B047E2-CEDE-41F6-B569-3E29F4A4A8CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B2D857A9-AE1C-4B16-801B-E10AF38D474E}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="1584" windowWidth="17280" windowHeight="8964" activeTab="5" xr2:uid="{BFB63638-E53B-431D-8D94-81A32DF8B432}"/>
+    <workbookView xWindow="0" yWindow="2040" windowWidth="17280" windowHeight="8964" activeTab="5" xr2:uid="{BFB63638-E53B-431D-8D94-81A32DF8B432}"/>
   </bookViews>
   <sheets>
     <sheet name="Categorical" sheetId="1" r:id="rId1"/>
@@ -5887,7 +5887,7 @@
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/ADD Health/Tables.xlsx
+++ b/ADD Health/Tables.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d474aaa2186e9c7/R Projects/ADD Health/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1942" documentId="8_{D6B047E2-CEDE-41F6-B569-3E29F4A4A8CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B2D857A9-AE1C-4B16-801B-E10AF38D474E}"/>
+  <xr:revisionPtr revIDLastSave="1966" documentId="8_{D6B047E2-CEDE-41F6-B569-3E29F4A4A8CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{56826B47-4B5B-4417-A52E-018E9EC43A73}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2040" windowWidth="17280" windowHeight="8964" activeTab="5" xr2:uid="{BFB63638-E53B-431D-8D94-81A32DF8B432}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="243">
   <si>
     <t>Table 1:  Demographic profile of sample (n=3342)</t>
   </si>
@@ -724,9 +724,6 @@
     <t>H4WP9</t>
   </si>
   <si>
-    <t>JH1FV1</t>
-  </si>
-  <si>
     <t>JH1FV2</t>
   </si>
   <si>
@@ -752,6 +749,24 @@
   </si>
   <si>
     <t>aceWitnessViolence</t>
+  </si>
+  <si>
+    <t>H3MA1</t>
+  </si>
+  <si>
+    <t>H3MA3</t>
+  </si>
+  <si>
+    <t>H3MA4</t>
+  </si>
+  <si>
+    <t>H4MA1</t>
+  </si>
+  <si>
+    <t>PA62</t>
+  </si>
+  <si>
+    <t>H1FV1</t>
   </si>
 </sst>
 </file>
@@ -1268,7 +1283,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01CE7B78-B8E0-46FF-81CA-D93AE7D32E2B}">
   <dimension ref="A1:H111"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
@@ -5886,8 +5901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C0F7A1-0B87-4DED-BFAA-2AC7DF9DD793}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5905,10 +5920,13 @@
       <c r="A2" s="26" t="s">
         <v>204</v>
       </c>
+      <c r="B2" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -5916,7 +5934,7 @@
         <v>205</v>
       </c>
       <c r="B4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -5933,30 +5951,39 @@
       <c r="A7" s="26" t="s">
         <v>206</v>
       </c>
+      <c r="B7" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>207</v>
       </c>
+      <c r="B9" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
         <v>208</v>
       </c>
+      <c r="B11" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -5964,7 +5991,7 @@
         <v>209</v>
       </c>
       <c r="B13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -5976,10 +6003,13 @@
       <c r="A15" s="26" t="s">
         <v>210</v>
       </c>
+      <c r="B15" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -5997,7 +6027,7 @@
         <v>212</v>
       </c>
       <c r="B19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -6035,12 +6065,12 @@
         <v>214</v>
       </c>
       <c r="B26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -6048,22 +6078,22 @@
         <v>215</v>
       </c>
       <c r="B28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/ADD Health/Tables.xlsx
+++ b/ADD Health/Tables.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1966" documentId="8_{D6B047E2-CEDE-41F6-B569-3E29F4A4A8CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{56826B47-4B5B-4417-A52E-018E9EC43A73}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2040" windowWidth="17280" windowHeight="8964" activeTab="5" xr2:uid="{BFB63638-E53B-431D-8D94-81A32DF8B432}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="14676" windowHeight="8424" firstSheet="2" activeTab="3" xr2:uid="{BFB63638-E53B-431D-8D94-81A32DF8B432}"/>
   </bookViews>
   <sheets>
     <sheet name="Categorical" sheetId="1" r:id="rId1"/>
@@ -1284,7 +1284,7 @@
   <dimension ref="A1:H111"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4272,7 +4272,7 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4621,8 +4621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A99C0C08-3AAF-4198-9235-282B8E2F1964}">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5256,7 +5256,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{843A0A7F-1AFC-4323-803F-CC1A2EB096D0}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
@@ -5901,7 +5901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C0F7A1-0B87-4DED-BFAA-2AC7DF9DD793}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
